--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\GitHub\MicroGridsPy-Teaching\MicroGrids\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4B954E-E7BB-4F8A-8116-0DF532E7A21D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Project Total Costs" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Yearly Costs Info" sheetId="3" r:id="rId3"/>
     <sheet name="Yearly Energy Averages" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>NPC [USD]</t>
   </si>
@@ -34,7 +28,7 @@
     <t>Total actualized Investment cost [USD]</t>
   </si>
   <si>
-    <t>Salvage Value at year 2 [USD]</t>
+    <t>Salvage Value at year 20 [USD]</t>
   </si>
   <si>
     <t>LCOE [USD/kWh</t>
@@ -49,9 +43,6 @@
     <t>Generator 1 Nominal Capacity [kW]</t>
   </si>
   <si>
-    <t>Generator 2 Nominal Capacity [kW]</t>
-  </si>
-  <si>
     <t>Renewable 1 Nominal Capacity [kW]</t>
   </si>
   <si>
@@ -64,9 +55,6 @@
     <t>Generator 1 Investment [USD]</t>
   </si>
   <si>
-    <t>Generator 2 Investment [USD]</t>
-  </si>
-  <si>
     <t>Renewable 1 Investment [USD]</t>
   </si>
   <si>
@@ -103,10 +91,61 @@
     <t>Year 2</t>
   </si>
   <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Year 7</t>
+  </si>
+  <si>
+    <t>Year 8</t>
+  </si>
+  <si>
+    <t>Year 9</t>
+  </si>
+  <si>
+    <t>Year 10</t>
+  </si>
+  <si>
+    <t>Year 11</t>
+  </si>
+  <si>
+    <t>Year 12</t>
+  </si>
+  <si>
+    <t>Year 13</t>
+  </si>
+  <si>
+    <t>Year 14</t>
+  </si>
+  <si>
+    <t>Year 15</t>
+  </si>
+  <si>
+    <t>Year 16</t>
+  </si>
+  <si>
+    <t>Year 17</t>
+  </si>
+  <si>
+    <t>Year 18</t>
+  </si>
+  <si>
+    <t>Year 19</t>
+  </si>
+  <si>
+    <t>Year 20</t>
+  </si>
+  <si>
     <t>Load served by Generator 1 %</t>
-  </si>
-  <si>
-    <t>Load served by Generator 2 %</t>
   </si>
   <si>
     <t>Load served by total RES %</t>
@@ -118,8 +157,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,23 +217,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -236,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,27 +299,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,24 +333,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,60 +508,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>373723.33889900002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6256126.99375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>322513.12391899998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1884968.9516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>384023.54050200002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4371158.04214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>332813.32552299998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3571982167907834</v>
+        <v>0.8567470013386214</v>
       </c>
     </row>
   </sheetData>
@@ -575,108 +566,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5.3158528266100008E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2712.21628371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>70.604926507499997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>43.435200063400004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>509.450781049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>92.409090404799997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104.9668996359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5.5650272516400002E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2007040.0499454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.39337310916913998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>29661.12962580075</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1881758.349960691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>13030.56001902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482359.642241833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>341331.45722820982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>2.5573247980823871E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>384023.54050187219</v>
+        <v>4371158.042147924</v>
       </c>
     </row>
   </sheetData>
@@ -685,95 +656,553 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E2">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>47443.72683102617</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E3">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>47632.9416625863</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>7.8674621833828007E-3</v>
-      </c>
-      <c r="C2">
-        <v>4138.8633642918749</v>
-      </c>
-      <c r="D2">
-        <v>6826.6291496788454</v>
-      </c>
-      <c r="E2">
-        <v>10965.500381432899</v>
-      </c>
-      <c r="F2">
-        <v>150291.0087386785</v>
-      </c>
-      <c r="G2">
-        <v>5.6681316501663033E-2</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E4">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>47618.10862433843</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>7.8674621833828007E-3</v>
-      </c>
-      <c r="C3">
-        <v>4138.8633642918749</v>
-      </c>
-      <c r="D3">
-        <v>6826.6291496788454</v>
-      </c>
-      <c r="E3">
-        <v>10965.500381432899</v>
-      </c>
-      <c r="F3">
-        <v>150291.0010620206</v>
-      </c>
-      <c r="G3">
-        <v>5.6674539760673173E-2</v>
-      </c>
-      <c r="H3">
+      <c r="B5">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E5">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>47619.97206547672</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E6">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>47624.80395492184</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E7">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>47627.06485060277</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E8">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>47628.36621991223</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E9">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>47629.33247145984</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E10">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>47630.27460722064</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E11">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>47631.21703531165</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E12">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>47632.1852432208</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E13">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>47633.22584214573</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E14">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>47634.17763780379</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E15">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>47635.2768705713</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E16">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>47636.40274215498</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E17">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>47637.68278665176</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E18">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>47638.98149000938</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E19">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>47640.27735621142</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E20">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>47641.43246232718</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>40140.800998908</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>47282.35984405049</v>
+      </c>
+      <c r="E21">
+        <v>87423.16084295849</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>47600.21489230501</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
     </row>
@@ -783,65 +1212,302 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>104.7852830711924</v>
+      </c>
+      <c r="D2">
+        <v>58.70158195875946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>105.1842997100125</v>
+      </c>
+      <c r="D3">
+        <v>58.54431983690016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>105.1514569377727</v>
+      </c>
+      <c r="D4">
+        <v>58.55726396891792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>105.1537639268479</v>
+      </c>
+      <c r="D5">
+        <v>58.55635472864628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>105.1623375335676</v>
+      </c>
+      <c r="D6">
+        <v>58.55297566257848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>105.1654346449408</v>
+      </c>
+      <c r="D7">
+        <v>58.55175501597179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>105.1664537452426</v>
+      </c>
+      <c r="D8">
+        <v>58.55135336385941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>63.042880449778529</v>
-      </c>
-      <c r="C2">
-        <v>5.0572701690140596</v>
-      </c>
-      <c r="D2">
-        <v>31.899855489291699</v>
-      </c>
-      <c r="E2">
-        <v>10.069713626069801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>63.042938341288803</v>
-      </c>
-      <c r="C3">
-        <v>5.0572121527303668</v>
-      </c>
-      <c r="D3">
-        <v>31.899855609597719</v>
-      </c>
-      <c r="E3">
-        <v>10.069713529177401</v>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>105.166785882526</v>
+      </c>
+      <c r="D9">
+        <v>58.55122246051143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>105.1669374788041</v>
+      </c>
+      <c r="D10">
+        <v>58.55116271274645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>105.1670243653178</v>
+      </c>
+      <c r="D11">
+        <v>58.55112846866695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>105.1670860015415</v>
+      </c>
+      <c r="D12">
+        <v>58.55110417633826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>105.167168336571</v>
+      </c>
+      <c r="D13">
+        <v>58.55107172610893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>105.1671937484179</v>
+      </c>
+      <c r="D14">
+        <v>58.55106171068458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>105.1672362856926</v>
+      </c>
+      <c r="D15">
+        <v>58.55104494571432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>105.1673594177718</v>
+      </c>
+      <c r="D16">
+        <v>58.55099641637958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>105.1676174734967</v>
+      </c>
+      <c r="D17">
+        <v>58.55089471036807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>105.167917231839</v>
+      </c>
+      <c r="D18">
+        <v>58.55077656834497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>105.1681708467548</v>
+      </c>
+      <c r="D19">
+        <v>58.55067661256391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>105.1679528496545</v>
+      </c>
+      <c r="D20">
+        <v>58.55076253050121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>105.0779602646324</v>
+      </c>
+      <c r="D21">
+        <v>58.5862307879504</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>NPC [USD]</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Total actualized Investment cost [USD]</t>
   </si>
   <si>
-    <t>Salvage Value at year 20 [USD]</t>
+    <t>Salvage Value at year 5 [USD]</t>
   </si>
   <si>
     <t>LCOE [USD/kWh</t>
@@ -98,51 +98,6 @@
   </si>
   <si>
     <t>Year 5</t>
-  </si>
-  <si>
-    <t>Year 6</t>
-  </si>
-  <si>
-    <t>Year 7</t>
-  </si>
-  <si>
-    <t>Year 8</t>
-  </si>
-  <si>
-    <t>Year 9</t>
-  </si>
-  <si>
-    <t>Year 10</t>
-  </si>
-  <si>
-    <t>Year 11</t>
-  </si>
-  <si>
-    <t>Year 12</t>
-  </si>
-  <si>
-    <t>Year 13</t>
-  </si>
-  <si>
-    <t>Year 14</t>
-  </si>
-  <si>
-    <t>Year 15</t>
-  </si>
-  <si>
-    <t>Year 16</t>
-  </si>
-  <si>
-    <t>Year 17</t>
-  </si>
-  <si>
-    <t>Year 18</t>
-  </si>
-  <si>
-    <t>Year 19</t>
-  </si>
-  <si>
-    <t>Year 20</t>
   </si>
   <si>
     <t>Load served by Generator 1 %</t>
@@ -525,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6256126.99375</v>
+        <v>4134021.15065</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -533,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1884968.9516</v>
+        <v>3312799.67032</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -541,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4371158.04214</v>
+        <v>821221.48033</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -557,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8567470013386214</v>
+        <v>0.4400427970392337</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2712.21628371</v>
+        <v>0.9614826571789999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -591,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>455.43219341</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -599,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>509.450781049</v>
+        <v>170.338511186</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -607,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>104.9668996359</v>
+        <v>0.000774683901282</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -615,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>2007040.0499454</v>
+        <v>711.49716631246</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -623,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>191327.064451541</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -631,7 +586,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1881758.349960691</v>
+        <v>629179.3587677283</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -639,7 +594,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>482359.642241833</v>
+        <v>3.559943665756238</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -647,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>4371158.042147924</v>
+        <v>821221.4803292475</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +612,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -691,22 +646,22 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>40140.800998908</v>
+        <v>14.2299433262492</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>19132.7064451541</v>
       </c>
       <c r="D2">
-        <v>47282.35984405049</v>
+        <v>12583.65837422788</v>
       </c>
       <c r="E2">
-        <v>87423.16084295849</v>
+        <v>31730.59476270823</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>706126.2457347935</v>
       </c>
       <c r="G2">
-        <v>47443.72683102617</v>
+        <v>25.31201466157454</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -717,22 +672,22 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>40140.800998908</v>
+        <v>14.2299433262492</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>19132.7064451541</v>
       </c>
       <c r="D3">
-        <v>47282.35984405049</v>
+        <v>12583.65837422788</v>
       </c>
       <c r="E3">
-        <v>87423.16084295849</v>
+        <v>31730.59476270823</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>706126.9053339667</v>
       </c>
       <c r="G3">
-        <v>47632.9416625863</v>
+        <v>25.87534405914261</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -743,22 +698,22 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>40140.800998908</v>
+        <v>14.2299433262492</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>19132.7064451541</v>
       </c>
       <c r="D4">
-        <v>47282.35984405049</v>
+        <v>12583.65837422788</v>
       </c>
       <c r="E4">
-        <v>87423.16084295849</v>
+        <v>31730.59476270823</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>706127.4380772213</v>
       </c>
       <c r="G4">
-        <v>47618.10862433843</v>
+        <v>26.44599501734014</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -769,22 +724,22 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>40140.800998908</v>
+        <v>14.2299433262492</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>19132.7064451541</v>
       </c>
       <c r="D5">
-        <v>47282.35984405049</v>
+        <v>12583.65837422788</v>
       </c>
       <c r="E5">
-        <v>87423.16084295849</v>
+        <v>31730.59476270823</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>706128.0094528636</v>
       </c>
       <c r="G5">
-        <v>47619.97206547672</v>
+        <v>27.0353208287138</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -795,414 +750,24 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>40140.800998908</v>
+        <v>14.2299433262492</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>19132.7064451541</v>
       </c>
       <c r="D6">
-        <v>47282.35984405049</v>
+        <v>12583.65837422788</v>
       </c>
       <c r="E6">
-        <v>87423.16084295849</v>
+        <v>31730.59476270823</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>706128.4838875127</v>
       </c>
       <c r="G6">
-        <v>47624.80395492184</v>
+        <v>27.70666213424028</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E7">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>47627.06485060277</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E8">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>47628.36621991223</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E9">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>47629.33247145984</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E10">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>47630.27460722064</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E11">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>47631.21703531165</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E12">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>47632.1852432208</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E13">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>47633.22584214573</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E14">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>47634.17763780379</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E15">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>47635.2768705713</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E16">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>47636.40274215498</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E17">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>47637.68278665176</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E18">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>47638.98149000938</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E19">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>47640.27735621142</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E20">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>47641.43246232718</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
-        <v>40140.800998908</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>47282.35984405049</v>
-      </c>
-      <c r="E21">
-        <v>87423.16084295849</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>47600.21489230501</v>
-      </c>
-      <c r="H21">
         <v>0</v>
       </c>
     </row>
@@ -1213,7 +778,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1221,13 +786,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1235,13 +800,13 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>80.33523864287838</v>
       </c>
       <c r="C2">
-        <v>104.7852830711924</v>
+        <v>19.66542895239256</v>
       </c>
       <c r="D2">
-        <v>58.70158195875946</v>
+        <v>0.1945388578144672</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1249,13 +814,13 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>80.33531368478141</v>
       </c>
       <c r="C3">
-        <v>105.1842997100125</v>
+        <v>19.66538777096284</v>
       </c>
       <c r="D3">
-        <v>58.54431983690016</v>
+        <v>0.1945798131245562</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1263,13 +828,13 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>80.33537429441981</v>
       </c>
       <c r="C4">
-        <v>105.1514569377727</v>
+        <v>19.66534262693693</v>
       </c>
       <c r="D4">
-        <v>58.55726396891792</v>
+        <v>0.194624751262253</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1277,13 +842,13 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>80.33543929922445</v>
       </c>
       <c r="C5">
-        <v>105.1537639268479</v>
+        <v>19.66529359702734</v>
       </c>
       <c r="D5">
-        <v>58.55635472864628</v>
+        <v>0.1946735590967177</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1291,223 +856,13 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>80.33549327515409</v>
       </c>
       <c r="C6">
-        <v>105.1623375335676</v>
+        <v>19.66523965923555</v>
       </c>
       <c r="D6">
-        <v>58.55297566257848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>105.1654346449408</v>
-      </c>
-      <c r="D7">
-        <v>58.55175501597179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>105.1664537452426</v>
-      </c>
-      <c r="D8">
-        <v>58.55135336385941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>105.166785882526</v>
-      </c>
-      <c r="D9">
-        <v>58.55122246051143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>105.1669374788041</v>
-      </c>
-      <c r="D10">
-        <v>58.55116271274645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>105.1670243653178</v>
-      </c>
-      <c r="D11">
-        <v>58.55112846866695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>105.1670860015415</v>
-      </c>
-      <c r="D12">
-        <v>58.55110417633826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>105.167168336571</v>
-      </c>
-      <c r="D13">
-        <v>58.55107172610893</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>105.1671937484179</v>
-      </c>
-      <c r="D14">
-        <v>58.55106171068458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>105.1672362856926</v>
-      </c>
-      <c r="D15">
-        <v>58.55104494571432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>105.1673594177718</v>
-      </c>
-      <c r="D16">
-        <v>58.55099641637958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>105.1676174734967</v>
-      </c>
-      <c r="D17">
-        <v>58.55089471036807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>105.167917231839</v>
-      </c>
-      <c r="D18">
-        <v>58.55077656834497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>105.1681708467548</v>
-      </c>
-      <c r="D19">
-        <v>58.55067661256391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>105.1679528496545</v>
-      </c>
-      <c r="D20">
-        <v>58.55076253050121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>105.0779602646324</v>
-      </c>
-      <c r="D21">
-        <v>58.5862307879504</v>
+        <v>0.1947272865908722</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>NPC [USD]</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Total actualized Investment cost [USD]</t>
   </si>
   <si>
-    <t>Salvage Value at year 5 [USD]</t>
+    <t>Salvage Value at year 4 [USD]</t>
   </si>
   <si>
     <t>LCOE [USD/kWh</t>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Year 4</t>
-  </si>
-  <si>
-    <t>Year 5</t>
   </si>
   <si>
     <t>Load served by Generator 1 %</t>
@@ -480,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4134021.15065</v>
+        <v>136547.441875</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -488,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3312799.67032</v>
+        <v>94064.59446779999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -496,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>821221.48033</v>
+        <v>51034.9382114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -504,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>8552.09080376</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -512,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4400427970392337</v>
+        <v>0.432881511291308</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.9614826571789999</v>
+        <v>15.8595870742</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -546,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>455.43219341</v>
+        <v>13.2068210333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -554,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>170.338511186</v>
+        <v>11.8853147177</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -562,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.000774683901282</v>
+        <v>1.526605897137e-06</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -570,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>711.49716631246</v>
+        <v>1585.95870742</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -578,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>191327.064451541</v>
+        <v>5548.18551608933</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -586,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>629179.3587677283</v>
+        <v>43900.78697276849</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -594,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>3.559943665756238</v>
+        <v>0.007015288409408513</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -602,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>821221.4803292475</v>
+        <v>51034.93821156622</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +609,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -646,22 +643,22 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>14.2299433262492</v>
+        <v>31.7191741484</v>
       </c>
       <c r="C2">
-        <v>19132.7064451541</v>
+        <v>554.818551608933</v>
       </c>
       <c r="D2">
-        <v>12583.65837422788</v>
+        <v>878.0158797611381</v>
       </c>
       <c r="E2">
-        <v>31730.59476270823</v>
+        <v>1464.553605518471</v>
       </c>
       <c r="F2">
-        <v>706126.2457347935</v>
+        <v>24250.65181510497</v>
       </c>
       <c r="G2">
-        <v>25.31201466157454</v>
+        <v>11.85129627215958</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -672,22 +669,22 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>14.2299433262492</v>
+        <v>31.7191741484</v>
       </c>
       <c r="C3">
-        <v>19132.7064451541</v>
+        <v>554.818551608933</v>
       </c>
       <c r="D3">
-        <v>12583.65837422788</v>
+        <v>878.0158797611381</v>
       </c>
       <c r="E3">
-        <v>31730.59476270823</v>
+        <v>1464.553605518471</v>
       </c>
       <c r="F3">
-        <v>706126.9053339667</v>
+        <v>24255.84014186306</v>
       </c>
       <c r="G3">
-        <v>25.87534405914261</v>
+        <v>11.84110964181924</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -698,22 +695,22 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>14.2299433262492</v>
+        <v>31.7191741484</v>
       </c>
       <c r="C4">
-        <v>19132.7064451541</v>
+        <v>554.818551608933</v>
       </c>
       <c r="D4">
-        <v>12583.65837422788</v>
+        <v>878.0158797611381</v>
       </c>
       <c r="E4">
-        <v>31730.59476270823</v>
+        <v>1464.553605518471</v>
       </c>
       <c r="F4">
-        <v>706127.4380772213</v>
+        <v>24255.87331289408</v>
       </c>
       <c r="G4">
-        <v>26.44599501734014</v>
+        <v>11.84198825476341</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -724,50 +721,24 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>14.2299433262492</v>
+        <v>31.7191741484</v>
       </c>
       <c r="C5">
-        <v>19132.7064451541</v>
+        <v>554.818551608933</v>
       </c>
       <c r="D5">
-        <v>12583.65837422788</v>
+        <v>878.0158797611381</v>
       </c>
       <c r="E5">
-        <v>31730.59476270823</v>
+        <v>1464.553605518471</v>
       </c>
       <c r="F5">
-        <v>706128.0094528636</v>
+        <v>24255.9044960758</v>
       </c>
       <c r="G5">
-        <v>27.0353208287138</v>
+        <v>11.84312502335135</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>14.2299433262492</v>
-      </c>
-      <c r="C6">
-        <v>19132.7064451541</v>
-      </c>
-      <c r="D6">
-        <v>12583.65837422788</v>
-      </c>
-      <c r="E6">
-        <v>31730.59476270823</v>
-      </c>
-      <c r="F6">
-        <v>706128.4838875127</v>
-      </c>
-      <c r="G6">
-        <v>27.70666213424028</v>
-      </c>
-      <c r="H6">
         <v>0</v>
       </c>
     </row>
@@ -778,7 +749,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -786,13 +757,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -800,13 +771,13 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>80.33523864287838</v>
+        <v>66.90751217141354</v>
       </c>
       <c r="C2">
-        <v>19.66542895239256</v>
+        <v>33.55992630345726</v>
       </c>
       <c r="D2">
-        <v>0.1945388578144672</v>
+        <v>0.04545168295388072</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -814,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>80.33531368478141</v>
+        <v>66.92182675719739</v>
       </c>
       <c r="C3">
-        <v>19.66538777096284</v>
+        <v>33.5598733559057</v>
       </c>
       <c r="D3">
-        <v>0.1945798131245562</v>
+        <v>0.0454978806212532</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -828,13 +799,13 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>80.33537429441981</v>
+        <v>66.92191827602245</v>
       </c>
       <c r="C4">
-        <v>19.66534262693693</v>
+        <v>33.55981767721776</v>
       </c>
       <c r="D4">
-        <v>0.194624751262253</v>
+        <v>0.04555322570841959</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -842,27 +813,13 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>80.33543929922445</v>
+        <v>66.92200431037425</v>
       </c>
       <c r="C5">
-        <v>19.66529359702734</v>
+        <v>33.55976703997576</v>
       </c>
       <c r="D5">
-        <v>0.1946735590967177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>80.33549327515409</v>
-      </c>
-      <c r="C6">
-        <v>19.66523965923555</v>
-      </c>
-      <c r="D6">
-        <v>0.1947272865908722</v>
+        <v>0.04560355819696653</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\GitHub\MicroGridsPy-Teaching\MicroGrids\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4B954E-E7BB-4F8A-8116-0DF532E7A21D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Project Total Costs" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Yearly Costs Info" sheetId="3" r:id="rId3"/>
     <sheet name="Yearly Energy Averages" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>NPC [USD]</t>
   </si>
@@ -34,7 +28,7 @@
     <t>Total actualized Investment cost [USD]</t>
   </si>
   <si>
-    <t>Salvage Value at year 2 [USD]</t>
+    <t>Salvage Value at year 4 [USD]</t>
   </si>
   <si>
     <t>LCOE [USD/kWh</t>
@@ -49,9 +43,6 @@
     <t>Generator 1 Nominal Capacity [kW]</t>
   </si>
   <si>
-    <t>Generator 2 Nominal Capacity [kW]</t>
-  </si>
-  <si>
     <t>Renewable 1 Nominal Capacity [kW]</t>
   </si>
   <si>
@@ -64,9 +55,6 @@
     <t>Generator 1 Investment [USD]</t>
   </si>
   <si>
-    <t>Generator 2 Investment [USD]</t>
-  </si>
-  <si>
     <t>Renewable 1 Investment [USD]</t>
   </si>
   <si>
@@ -103,10 +91,13 @@
     <t>Year 2</t>
   </si>
   <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
     <t>Load served by Generator 1 %</t>
-  </si>
-  <si>
-    <t>Load served by Generator 2 %</t>
   </si>
   <si>
     <t>Load served by total RES %</t>
@@ -118,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,23 +169,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -236,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,27 +251,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,24 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,60 +460,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>373723.33889900002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136547.441875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>322513.12391899998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94064.59446779999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>384023.54050200002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51034.9382114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>332813.32552299998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8552.09080376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3571982167907834</v>
+        <v>0.432881511291308</v>
       </c>
     </row>
   </sheetData>
@@ -575,108 +518,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5.3158528266100008E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15.8595870742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>70.604926507499997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13.2068210333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>43.435200063400004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11.8853147177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>92.409090404799997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.526605897137e-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5.5650272516400002E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1585.95870742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.39337310916913998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5548.18551608933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>29661.12962580075</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43900.78697276849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>13030.56001902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.007015288409408513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>341331.45722820982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>2.5573247980823871E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>384023.54050187219</v>
+        <v>51034.93821156622</v>
       </c>
     </row>
   </sheetData>
@@ -685,95 +608,137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="B2">
-        <v>7.8674621833828007E-3</v>
+        <v>31.7191741484</v>
       </c>
       <c r="C2">
-        <v>4138.8633642918749</v>
+        <v>554.818551608933</v>
       </c>
       <c r="D2">
-        <v>6826.6291496788454</v>
+        <v>878.0158797611381</v>
       </c>
       <c r="E2">
-        <v>10965.500381432899</v>
+        <v>1464.553605518471</v>
       </c>
       <c r="F2">
-        <v>150291.0087386785</v>
+        <v>24250.65181510497</v>
       </c>
       <c r="G2">
-        <v>5.6681316501663033E-2</v>
+        <v>11.85129627215958</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>31.7191741484</v>
+      </c>
+      <c r="C3">
+        <v>554.818551608933</v>
+      </c>
+      <c r="D3">
+        <v>878.0158797611381</v>
+      </c>
+      <c r="E3">
+        <v>1464.553605518471</v>
+      </c>
+      <c r="F3">
+        <v>24255.84014186306</v>
+      </c>
+      <c r="G3">
+        <v>11.84110964181924</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>31.7191741484</v>
+      </c>
+      <c r="C4">
+        <v>554.818551608933</v>
+      </c>
+      <c r="D4">
+        <v>878.0158797611381</v>
+      </c>
+      <c r="E4">
+        <v>1464.553605518471</v>
+      </c>
+      <c r="F4">
+        <v>24255.87331289408</v>
+      </c>
+      <c r="G4">
+        <v>11.84198825476341</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>7.8674621833828007E-3</v>
-      </c>
-      <c r="C3">
-        <v>4138.8633642918749</v>
-      </c>
-      <c r="D3">
-        <v>6826.6291496788454</v>
-      </c>
-      <c r="E3">
-        <v>10965.500381432899</v>
-      </c>
-      <c r="F3">
-        <v>150291.0010620206</v>
-      </c>
-      <c r="G3">
-        <v>5.6674539760673173E-2</v>
-      </c>
-      <c r="H3">
+      <c r="B5">
+        <v>31.7191741484</v>
+      </c>
+      <c r="C5">
+        <v>554.818551608933</v>
+      </c>
+      <c r="D5">
+        <v>878.0158797611381</v>
+      </c>
+      <c r="E5">
+        <v>1464.553605518471</v>
+      </c>
+      <c r="F5">
+        <v>24255.9044960758</v>
+      </c>
+      <c r="G5">
+        <v>11.84312502335135</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
     </row>
@@ -783,20 +748,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
@@ -806,42 +765,61 @@
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>66.90751217141354</v>
+      </c>
+      <c r="C2">
+        <v>33.55992630345726</v>
+      </c>
+      <c r="D2">
+        <v>0.04545168295388072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>66.92182675719739</v>
+      </c>
+      <c r="C3">
+        <v>33.5598733559057</v>
+      </c>
+      <c r="D3">
+        <v>0.0454978806212532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>63.042880449778529</v>
-      </c>
-      <c r="C2">
-        <v>5.0572701690140596</v>
-      </c>
-      <c r="D2">
-        <v>31.899855489291699</v>
-      </c>
-      <c r="E2">
-        <v>10.069713626069801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>66.92191827602245</v>
+      </c>
+      <c r="C4">
+        <v>33.55981767721776</v>
+      </c>
+      <c r="D4">
+        <v>0.04555322570841959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>63.042938341288803</v>
-      </c>
-      <c r="C3">
-        <v>5.0572121527303668</v>
-      </c>
-      <c r="D3">
-        <v>31.899855609597719</v>
-      </c>
-      <c r="E3">
-        <v>10.069713529177401</v>
+      <c r="B5">
+        <v>66.92200431037425</v>
+      </c>
+      <c r="C5">
+        <v>33.55976703997576</v>
+      </c>
+      <c r="D5">
+        <v>0.04560355819696653</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>136547.441875</v>
+        <v>134806.415838</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>94064.59446779999</v>
+        <v>94577.3814634</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51034.9382114</v>
+        <v>48400.9891953</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8552.09080376</v>
+        <v>8171.9548206</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.432881511291308</v>
+        <v>0.4273621257082079</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>15.8595870742</v>
+        <v>11.4999108222</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>13.2068210333</v>
+        <v>13.0007758572</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -551,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>11.8853147177</v>
+        <v>11.3136349885</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1.526605897137e-06</v>
+        <v>4.322164368449999e-05</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1585.95870742</v>
+        <v>1149.99108222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -575,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5548.18551608933</v>
+        <v>5461.62593760972</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>43900.78697276849</v>
+        <v>41789.17355702246</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -591,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.007015288409408513</v>
+        <v>0.198618580305567</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>51034.93821156622</v>
+        <v>48400.98919543248</v>
       </c>
     </row>
   </sheetData>
@@ -643,22 +643,22 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>31.7191741484</v>
+        <v>22.9998216444</v>
       </c>
       <c r="C2">
-        <v>554.818551608933</v>
+        <v>546.162593760972</v>
       </c>
       <c r="D2">
-        <v>878.0158797611381</v>
+        <v>835.7874435120552</v>
       </c>
       <c r="E2">
-        <v>1464.553605518471</v>
+        <v>1404.949858917427</v>
       </c>
       <c r="F2">
-        <v>24250.65181510497</v>
+        <v>24453.58352930021</v>
       </c>
       <c r="G2">
-        <v>11.85129627215958</v>
+        <v>9.843427595493395</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -669,22 +669,22 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>31.7191741484</v>
+        <v>22.9998216444</v>
       </c>
       <c r="C3">
-        <v>554.818551608933</v>
+        <v>546.162593760972</v>
       </c>
       <c r="D3">
-        <v>878.0158797611381</v>
+        <v>835.7874435120552</v>
       </c>
       <c r="E3">
-        <v>1464.553605518471</v>
+        <v>1404.949858917427</v>
       </c>
       <c r="F3">
-        <v>24255.84014186306</v>
+        <v>24457.35045313893</v>
       </c>
       <c r="G3">
-        <v>11.84110964181924</v>
+        <v>9.836177134840085</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,22 +695,22 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>31.7191741484</v>
+        <v>22.9998216444</v>
       </c>
       <c r="C4">
-        <v>554.818551608933</v>
+        <v>546.162593760972</v>
       </c>
       <c r="D4">
-        <v>878.0158797611381</v>
+        <v>835.7874435120552</v>
       </c>
       <c r="E4">
-        <v>1464.553605518471</v>
+        <v>1404.949858917427</v>
       </c>
       <c r="F4">
-        <v>24255.87331289408</v>
+        <v>24457.37558412998</v>
       </c>
       <c r="G4">
-        <v>11.84198825476341</v>
+        <v>9.836815562757163</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -721,22 +721,22 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>31.7191741484</v>
+        <v>22.9998216444</v>
       </c>
       <c r="C5">
-        <v>554.818551608933</v>
+        <v>546.162593760972</v>
       </c>
       <c r="D5">
-        <v>878.0158797611381</v>
+        <v>835.7874435120552</v>
       </c>
       <c r="E5">
-        <v>1464.553605518471</v>
+        <v>1404.949858917427</v>
       </c>
       <c r="F5">
-        <v>24255.9044960758</v>
+        <v>24457.40076786133</v>
       </c>
       <c r="G5">
-        <v>11.84312502335135</v>
+        <v>9.837486884454114</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>66.90751217141354</v>
+        <v>67.46740046806653</v>
       </c>
       <c r="C2">
-        <v>33.55992630345726</v>
+        <v>31.9223398623658</v>
       </c>
       <c r="D2">
-        <v>0.04545168295388072</v>
+        <v>0.06725687312808767</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -785,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>66.92182675719739</v>
+        <v>67.47779340531642</v>
       </c>
       <c r="C3">
-        <v>33.5598733559057</v>
+        <v>31.92229762938548</v>
       </c>
       <c r="D3">
-        <v>0.0454978806212532</v>
+        <v>0.06729230498684267</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -799,13 +799,13 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>66.92191827602245</v>
+        <v>67.47786274168367</v>
       </c>
       <c r="C4">
-        <v>33.55981767721776</v>
+        <v>31.92225426675409</v>
       </c>
       <c r="D4">
-        <v>0.04555322570841959</v>
+        <v>0.06733585303032522</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -813,13 +813,13 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>66.92200431037425</v>
+        <v>67.47793222356064</v>
       </c>
       <c r="C5">
-        <v>33.55976703997576</v>
+        <v>31.92220959164908</v>
       </c>
       <c r="D5">
-        <v>0.04560355819696653</v>
+        <v>0.06738072041894191</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>136547.441875</v>
+        <v>134801.95785</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>94064.59446779999</v>
+        <v>94620.8138837</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51034.9382114</v>
+        <v>48344.6175166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8552.09080376</v>
+        <v>8163.4735501</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.432881511291308</v>
+        <v>0.4273479930334668</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>15.8595870742</v>
+        <v>11.4265889353</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>13.2068210333</v>
+        <v>13.0063739653</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -551,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>11.8853147177</v>
+        <v>11.2996900593</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1.526605897137e-06</v>
+        <v>6.871036559040001e-05</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1585.95870742</v>
+        <v>1142.65889353</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -575,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5548.18551608933</v>
+        <v>5463.977702822529</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>43900.78697276849</v>
+        <v>41737.66517203641</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -591,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.007015288409408513</v>
+        <v>0.3157481785158446</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>51034.93821156622</v>
+        <v>48344.61751656746</v>
       </c>
     </row>
   </sheetData>
@@ -643,22 +643,22 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>31.7191741484</v>
+        <v>22.8531778706</v>
       </c>
       <c r="C2">
-        <v>554.818551608933</v>
+        <v>546.397770282253</v>
       </c>
       <c r="D2">
-        <v>878.0158797611381</v>
+        <v>834.7596184042985</v>
       </c>
       <c r="E2">
-        <v>1464.553605518471</v>
+        <v>1404.010566557151</v>
       </c>
       <c r="F2">
-        <v>24250.65181510497</v>
+        <v>24466.48949836018</v>
       </c>
       <c r="G2">
-        <v>11.85129627215958</v>
+        <v>9.785819582086617</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -669,22 +669,22 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>31.7191741484</v>
+        <v>22.8531778706</v>
       </c>
       <c r="C3">
-        <v>554.818551608933</v>
+        <v>546.397770282253</v>
       </c>
       <c r="D3">
-        <v>878.0158797611381</v>
+        <v>834.7596184042985</v>
       </c>
       <c r="E3">
-        <v>1464.553605518471</v>
+        <v>1404.010566557151</v>
       </c>
       <c r="F3">
-        <v>24255.84014186306</v>
+        <v>24470.22568845345</v>
       </c>
       <c r="G3">
-        <v>11.84110964181924</v>
+        <v>9.778886476819613</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,22 +695,22 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>31.7191741484</v>
+        <v>22.8531778706</v>
       </c>
       <c r="C4">
-        <v>554.818551608933</v>
+        <v>546.397770282253</v>
       </c>
       <c r="D4">
-        <v>878.0158797611381</v>
+        <v>834.7596184042985</v>
       </c>
       <c r="E4">
-        <v>1464.553605518471</v>
+        <v>1404.010566557151</v>
       </c>
       <c r="F4">
-        <v>24255.87331289408</v>
+        <v>24470.2426119767</v>
       </c>
       <c r="G4">
-        <v>11.84198825476341</v>
+        <v>9.779706165258435</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -721,22 +721,22 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>31.7191741484</v>
+        <v>22.8531778706</v>
       </c>
       <c r="C5">
-        <v>554.818551608933</v>
+        <v>546.397770282253</v>
       </c>
       <c r="D5">
-        <v>878.0158797611381</v>
+        <v>834.7596184042985</v>
       </c>
       <c r="E5">
-        <v>1464.553605518471</v>
+        <v>1404.010566557151</v>
       </c>
       <c r="F5">
-        <v>24255.9044960758</v>
+        <v>24470.25879658613</v>
       </c>
       <c r="G5">
-        <v>11.84312502335135</v>
+        <v>9.780541523931042</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>66.90751217141354</v>
+        <v>67.50300801744491</v>
       </c>
       <c r="C2">
-        <v>33.55992630345726</v>
+        <v>31.88450206525053</v>
       </c>
       <c r="D2">
-        <v>0.04545168295388072</v>
+        <v>0.06568321572237494</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -785,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>66.92182675719739</v>
+        <v>67.51331616033737</v>
       </c>
       <c r="C3">
-        <v>33.5598733559057</v>
+        <v>31.88448902272009</v>
       </c>
       <c r="D3">
-        <v>0.0454978806212532</v>
+        <v>0.06568952138554171</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -799,13 +799,13 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>66.92191827602245</v>
+        <v>67.51336285231262</v>
       </c>
       <c r="C4">
-        <v>33.55981767721776</v>
+        <v>31.88447568372674</v>
       </c>
       <c r="D4">
-        <v>0.04555322570841959</v>
+        <v>0.06570290153329351</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -813,13 +813,13 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>66.92200431037425</v>
+        <v>67.51340750562601</v>
       </c>
       <c r="C5">
-        <v>33.55976703997576</v>
+        <v>31.88446146904056</v>
       </c>
       <c r="D5">
-        <v>0.04560355819696653</v>
+        <v>0.06571716343407837</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>134806.415838</v>
+        <v>130451.318051</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>94577.3814634</v>
+        <v>93858.84357510001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>48400.9891953</v>
+        <v>44126.2324661</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8171.9548206</v>
+        <v>7533.75798994</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4273621257082079</v>
+        <v>0.4135556326244063</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>11.4999108222</v>
+        <v>5.65347416886</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>13.0007758572</v>
+        <v>12.5449991483</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -551,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>11.3136349885</v>
+        <v>10.3663186693</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4.322164368449999e-05</v>
+        <v>0.0001435447434246</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1149.99108222</v>
+        <v>565.347416886</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -575,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5461.62593760972</v>
+        <v>5270.154142200829</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>41789.17355702246</v>
+        <v>38290.07126879341</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -591,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.198618580305567</v>
+        <v>0.6596383366962356</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>48400.98919543248</v>
+        <v>44126.23246621694</v>
       </c>
     </row>
   </sheetData>
@@ -643,22 +643,22 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>22.9998216444</v>
+        <v>11.30694833772</v>
       </c>
       <c r="C2">
-        <v>546.162593760972</v>
+        <v>527.015414220083</v>
       </c>
       <c r="D2">
-        <v>835.7874435120552</v>
+        <v>765.8146181426023</v>
       </c>
       <c r="E2">
-        <v>1404.949858917427</v>
+        <v>1304.136980700405</v>
       </c>
       <c r="F2">
-        <v>24453.58352930021</v>
+        <v>24364.1971795696</v>
       </c>
       <c r="G2">
-        <v>9.843427595493395</v>
+        <v>4.86512275888884</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -669,22 +669,22 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>22.9998216444</v>
+        <v>11.30694833772</v>
       </c>
       <c r="C3">
-        <v>546.162593760972</v>
+        <v>527.015414220083</v>
       </c>
       <c r="D3">
-        <v>835.7874435120552</v>
+        <v>765.8146181426023</v>
       </c>
       <c r="E3">
-        <v>1404.949858917427</v>
+        <v>1304.136980700405</v>
       </c>
       <c r="F3">
-        <v>24457.35045313893</v>
+        <v>24366.0841858457</v>
       </c>
       <c r="G3">
-        <v>9.836177134840085</v>
+        <v>4.863601701190197</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,22 +695,22 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>22.9998216444</v>
+        <v>11.30694833772</v>
       </c>
       <c r="C4">
-        <v>546.162593760972</v>
+        <v>527.015414220083</v>
       </c>
       <c r="D4">
-        <v>835.7874435120552</v>
+        <v>765.8146181426023</v>
       </c>
       <c r="E4">
-        <v>1404.949858917427</v>
+        <v>1304.136980700405</v>
       </c>
       <c r="F4">
-        <v>24457.37558412998</v>
+        <v>24366.11538123513</v>
       </c>
       <c r="G4">
-        <v>9.836815562757163</v>
+        <v>4.864784102044654</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -721,22 +721,22 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>22.9998216444</v>
+        <v>11.30694833772</v>
       </c>
       <c r="C5">
-        <v>546.162593760972</v>
+        <v>527.015414220083</v>
       </c>
       <c r="D5">
-        <v>835.7874435120552</v>
+        <v>765.8146181426023</v>
       </c>
       <c r="E5">
-        <v>1404.949858917427</v>
+        <v>1304.136980700405</v>
       </c>
       <c r="F5">
-        <v>24457.40076786133</v>
+        <v>24366.14749731299</v>
       </c>
       <c r="G5">
-        <v>9.837486884454114</v>
+        <v>4.865951861948594</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>67.46740046806653</v>
+        <v>67.22078366254071</v>
       </c>
       <c r="C2">
-        <v>31.9223398623658</v>
+        <v>29.24774647296982</v>
       </c>
       <c r="D2">
-        <v>0.06725687312808767</v>
+        <v>0.06531621188922715</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -785,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>67.47779340531642</v>
+        <v>67.22598991004092</v>
       </c>
       <c r="C3">
-        <v>31.92229762938548</v>
+        <v>29.24771125677656</v>
       </c>
       <c r="D3">
-        <v>0.06729230498684267</v>
+        <v>0.065349168931358</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -799,13 +799,13 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>67.47786274168367</v>
+        <v>67.22607597807369</v>
       </c>
       <c r="C4">
-        <v>31.92225426675409</v>
+        <v>29.24767328898951</v>
       </c>
       <c r="D4">
-        <v>0.06733585303032522</v>
+        <v>0.06538844049779857</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -813,13 +813,13 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>67.47793222356064</v>
+        <v>67.22616458628441</v>
       </c>
       <c r="C5">
-        <v>31.92220959164908</v>
+        <v>29.24763056290139</v>
       </c>
       <c r="D5">
-        <v>0.06738072041894191</v>
+        <v>0.06543263926662823</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>134801.95785</v>
+        <v>128440.216983</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>94620.8138837</v>
+        <v>92418.0586911</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>48344.6175166</v>
+        <v>43449.0745365</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8163.4735501</v>
+        <v>7426.91624477</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4273479930334668</v>
+        <v>0.4071800575296173</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>11.4265889353</v>
+        <v>5.05958333458</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>13.0063739653</v>
+        <v>12.0066984322</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -551,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>11.2996900593</v>
+        <v>10.260412818</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>6.871036559040001e-05</v>
+        <v>4.68660635136e-05</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1142.65889353</v>
+        <v>505.958333458</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -575,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5463.977702822529</v>
+        <v>5044.01401136722</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>41737.66517203641</v>
+        <v>37898.8868258466</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -591,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3157481785158446</v>
+        <v>0.2153659649672218</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>48344.61751656746</v>
+        <v>43449.07453663679</v>
       </c>
     </row>
   </sheetData>
@@ -643,22 +643,22 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>22.8531778706</v>
+        <v>10.11916666916</v>
       </c>
       <c r="C2">
-        <v>546.397770282253</v>
+        <v>504.401401136722</v>
       </c>
       <c r="D2">
-        <v>834.7596184042985</v>
+        <v>757.9820438362314</v>
       </c>
       <c r="E2">
-        <v>1404.010566557151</v>
+        <v>1272.502611642113</v>
       </c>
       <c r="F2">
-        <v>24466.48949836018</v>
+        <v>24002.41646778491</v>
       </c>
       <c r="G2">
-        <v>9.785819582086617</v>
+        <v>4.334713039182472</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -669,22 +669,22 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>22.8531778706</v>
+        <v>10.11916666916</v>
       </c>
       <c r="C3">
-        <v>546.397770282253</v>
+        <v>504.401401136722</v>
       </c>
       <c r="D3">
-        <v>834.7596184042985</v>
+        <v>757.9820438362314</v>
       </c>
       <c r="E3">
-        <v>1404.010566557151</v>
+        <v>1272.502611642113</v>
       </c>
       <c r="F3">
-        <v>24470.22568845345</v>
+        <v>24004.08996193788</v>
       </c>
       <c r="G3">
-        <v>9.778886476819613</v>
+        <v>4.333205517307803</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,22 +695,22 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>22.8531778706</v>
+        <v>10.11916666916</v>
       </c>
       <c r="C4">
-        <v>546.397770282253</v>
+        <v>504.401401136722</v>
       </c>
       <c r="D4">
-        <v>834.7596184042985</v>
+        <v>757.9820438362314</v>
       </c>
       <c r="E4">
-        <v>1404.010566557151</v>
+        <v>1272.502611642113</v>
       </c>
       <c r="F4">
-        <v>24470.2426119767</v>
+        <v>24004.0991941295</v>
       </c>
       <c r="G4">
-        <v>9.779706165258435</v>
+        <v>4.33371497862298</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -721,22 +721,22 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>22.8531778706</v>
+        <v>10.11916666916</v>
       </c>
       <c r="C5">
-        <v>546.397770282253</v>
+        <v>504.401401136722</v>
       </c>
       <c r="D5">
-        <v>834.7596184042985</v>
+        <v>757.9820438362314</v>
       </c>
       <c r="E5">
-        <v>1404.010566557151</v>
+        <v>1272.502611642113</v>
       </c>
       <c r="F5">
-        <v>24470.25879658613</v>
+        <v>24004.10736450143</v>
       </c>
       <c r="G5">
-        <v>9.780541523931042</v>
+        <v>4.334211386930708</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>67.50300801744491</v>
+        <v>66.22263121857034</v>
       </c>
       <c r="C2">
-        <v>31.88450206525053</v>
+        <v>28.94902304812883</v>
       </c>
       <c r="D2">
-        <v>0.06568321572237494</v>
+        <v>0.06535106619399186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -785,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>67.51331616033737</v>
+        <v>66.2272483864416</v>
       </c>
       <c r="C3">
-        <v>31.88448902272009</v>
+        <v>28.94902559596199</v>
       </c>
       <c r="D3">
-        <v>0.06568952138554171</v>
+        <v>0.06534522275763031</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -799,13 +799,13 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>67.51336285231262</v>
+        <v>66.22727385804464</v>
       </c>
       <c r="C4">
-        <v>31.88447568372674</v>
+        <v>28.94902186730531</v>
       </c>
       <c r="D4">
-        <v>0.06570290153329351</v>
+        <v>0.06534912035252322</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -813,13 +813,13 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>67.51340750562601</v>
+        <v>66.22729640008853</v>
       </c>
       <c r="C5">
-        <v>31.88446146904056</v>
+        <v>28.9490176418287</v>
       </c>
       <c r="D5">
-        <v>0.06571716343407837</v>
+        <v>0.06535354161400719</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>130451.318051</v>
+        <v>134360.265872</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>93858.84357510001</v>
+        <v>94486.8017136</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>44126.2324661</v>
+        <v>47983.4984533</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7533.75798994</v>
+        <v>8110.03429516</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4135556326244063</v>
+        <v>0.4259477449706951</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5.65347416886</v>
+        <v>10.9053054173</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>12.5449991483</v>
+        <v>12.9488666456</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -551,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>10.3663186693</v>
+        <v>11.2225601905</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0001435447434246</v>
+        <v>8.235674739809999e-05</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>565.347416886</v>
+        <v>1090.53054173</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -575,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5270.154142200829</v>
+        <v>5439.81887781656</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>38290.07126879341</v>
+        <v>41452.77057564985</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -591,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.6596383366962356</v>
+        <v>0.3784580791558588</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>44126.23246621694</v>
+        <v>47983.49845327557</v>
       </c>
     </row>
   </sheetData>
@@ -643,22 +643,22 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>11.30694833772</v>
+        <v>21.8106108346</v>
       </c>
       <c r="C2">
-        <v>527.015414220083</v>
+        <v>543.9818877816559</v>
       </c>
       <c r="D2">
-        <v>765.8146181426023</v>
+        <v>829.0629806745802</v>
       </c>
       <c r="E2">
-        <v>1304.136980700405</v>
+        <v>1394.855479290836</v>
       </c>
       <c r="F2">
-        <v>24364.1971795696</v>
+        <v>24439.53923883097</v>
       </c>
       <c r="G2">
-        <v>4.86512275888884</v>
+        <v>9.351160844696464</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -669,22 +669,22 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>11.30694833772</v>
+        <v>21.8106108346</v>
       </c>
       <c r="C3">
-        <v>527.015414220083</v>
+        <v>543.9818877816559</v>
       </c>
       <c r="D3">
-        <v>765.8146181426023</v>
+        <v>829.0629806745802</v>
       </c>
       <c r="E3">
-        <v>1304.136980700405</v>
+        <v>1394.855479290836</v>
       </c>
       <c r="F3">
-        <v>24366.0841858457</v>
+        <v>24443.11044667862</v>
       </c>
       <c r="G3">
-        <v>4.863601701190197</v>
+        <v>9.344859523693643</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,22 +695,22 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>11.30694833772</v>
+        <v>21.8106108346</v>
       </c>
       <c r="C4">
-        <v>527.015414220083</v>
+        <v>543.9818877816559</v>
       </c>
       <c r="D4">
-        <v>765.8146181426023</v>
+        <v>829.0629806745802</v>
       </c>
       <c r="E4">
-        <v>1304.136980700405</v>
+        <v>1394.855479290836</v>
       </c>
       <c r="F4">
-        <v>24366.11538123513</v>
+        <v>24443.1310154965</v>
       </c>
       <c r="G4">
-        <v>4.864784102044654</v>
+        <v>9.345878495719557</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -721,22 +721,22 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>11.30694833772</v>
+        <v>21.8106108346</v>
       </c>
       <c r="C5">
-        <v>527.015414220083</v>
+        <v>543.9818877816559</v>
       </c>
       <c r="D5">
-        <v>765.8146181426023</v>
+        <v>829.0629806745802</v>
       </c>
       <c r="E5">
-        <v>1304.136980700405</v>
+        <v>1394.855479290836</v>
       </c>
       <c r="F5">
-        <v>24366.14749731299</v>
+        <v>24443.15038968634</v>
       </c>
       <c r="G5">
-        <v>4.865951861948594</v>
+        <v>9.346908547154104</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>67.22078366254071</v>
+        <v>67.42865229161856</v>
       </c>
       <c r="C2">
-        <v>29.24774647296982</v>
+        <v>31.66578710478957</v>
       </c>
       <c r="D2">
-        <v>0.06531621188922715</v>
+        <v>0.06652610336459418</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -785,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>67.22598991004092</v>
+        <v>67.43850524874158</v>
       </c>
       <c r="C3">
-        <v>29.24771125677656</v>
+        <v>31.66577106572672</v>
       </c>
       <c r="D3">
-        <v>0.065349168931358</v>
+        <v>0.06653566699226113</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -799,13 +799,13 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>67.22607597807369</v>
+        <v>67.43856199807881</v>
       </c>
       <c r="C4">
-        <v>29.24767328898951</v>
+        <v>31.6657557627502</v>
       </c>
       <c r="D4">
-        <v>0.06538844049779857</v>
+        <v>0.06655105992280075</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -813,13 +813,13 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>67.22616458628441</v>
+        <v>67.43861545144021</v>
       </c>
       <c r="C5">
-        <v>29.24763056290139</v>
+        <v>31.66573961982083</v>
       </c>
       <c r="D5">
-        <v>0.06543263926662823</v>
+        <v>0.06656730202774849</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>NPC [USD]</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Total actualized Investment cost [USD]</t>
   </si>
   <si>
-    <t>Salvage Value at year 4 [USD]</t>
+    <t>Salvage Value at year 20 [USD]</t>
   </si>
   <si>
     <t>LCOE [USD/kWh</t>
@@ -43,6 +43,9 @@
     <t>Generator 1 Nominal Capacity [kW]</t>
   </si>
   <si>
+    <t>Generator 2 Nominal Capacity [kW]</t>
+  </si>
+  <si>
     <t>Renewable 1 Nominal Capacity [kW]</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>Generator 1 Investment [USD]</t>
   </si>
   <si>
+    <t>Generator 2 Investment [USD]</t>
+  </si>
+  <si>
     <t>Renewable 1 Investment [USD]</t>
   </si>
   <si>
@@ -97,7 +103,58 @@
     <t>Year 4</t>
   </si>
   <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Year 7</t>
+  </si>
+  <si>
+    <t>Year 8</t>
+  </si>
+  <si>
+    <t>Year 9</t>
+  </si>
+  <si>
+    <t>Year 10</t>
+  </si>
+  <si>
+    <t>Year 11</t>
+  </si>
+  <si>
+    <t>Year 12</t>
+  </si>
+  <si>
+    <t>Year 13</t>
+  </si>
+  <si>
+    <t>Year 14</t>
+  </si>
+  <si>
+    <t>Year 15</t>
+  </si>
+  <si>
+    <t>Year 16</t>
+  </si>
+  <si>
+    <t>Year 17</t>
+  </si>
+  <si>
+    <t>Year 18</t>
+  </si>
+  <si>
+    <t>Year 19</t>
+  </si>
+  <si>
+    <t>Year 20</t>
+  </si>
+  <si>
     <t>Load served by Generator 1 %</t>
+  </si>
+  <si>
+    <t>Load served by Generator 2 %</t>
   </si>
   <si>
     <t>Load served by total RES %</t>
@@ -477,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>134360.265872</v>
+        <v>293381.953784</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>94486.8017136</v>
+        <v>231554.67607</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -493,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47983.4984533</v>
+        <v>61827.2777136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -501,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8110.03429516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -509,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4259477449706951</v>
+        <v>0.3276298713980647</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +576,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +592,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>10.9053054173</v>
+        <v>0.0260753354553</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -543,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>12.9488666456</v>
+        <v>36.091293993</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -551,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>11.2225601905</v>
+        <v>0.00165531644012</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -559,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>8.235674739809999e-05</v>
+        <v>27.2934882387</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -567,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1090.53054173</v>
+        <v>0.001991792249943</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -575,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5439.81887781656</v>
+        <v>14.080681145862</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -583,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>41452.77057564985</v>
+        <v>7218.2587986</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -591,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3784580791558588</v>
+        <v>1.986379728144</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -599,7 +656,23 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>47983.49845327557</v>
+        <v>54586.9764774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>5.975376749829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>61827.27771362383</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +682,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,48 +690,48 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>21.8106108346</v>
+        <v>0.28161362291724</v>
       </c>
       <c r="C2">
-        <v>543.9818877816559</v>
+        <v>324.9110330247664</v>
       </c>
       <c r="D2">
-        <v>829.0629806745802</v>
+        <v>1091.859037082997</v>
       </c>
       <c r="E2">
-        <v>1394.855479290836</v>
+        <v>1417.05168373068</v>
       </c>
       <c r="F2">
-        <v>24439.53923883097</v>
+        <v>35575.04037179392</v>
       </c>
       <c r="G2">
-        <v>9.351160844696464</v>
+        <v>0.6286452380429176</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -666,25 +739,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>21.8106108346</v>
+        <v>0.28161362291724</v>
       </c>
       <c r="C3">
-        <v>543.9818877816559</v>
+        <v>324.9110330247664</v>
       </c>
       <c r="D3">
-        <v>829.0629806745802</v>
+        <v>1091.859037082997</v>
       </c>
       <c r="E3">
-        <v>1394.855479290836</v>
+        <v>1417.05168373068</v>
       </c>
       <c r="F3">
-        <v>24443.11044667862</v>
+        <v>35575.10697257982</v>
       </c>
       <c r="G3">
-        <v>9.344859523693643</v>
+        <v>0.6433874021842161</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -692,25 +765,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>21.8106108346</v>
+        <v>0.28161362291724</v>
       </c>
       <c r="C4">
-        <v>543.9818877816559</v>
+        <v>324.9110330247664</v>
       </c>
       <c r="D4">
-        <v>829.0629806745802</v>
+        <v>1091.859037082997</v>
       </c>
       <c r="E4">
-        <v>1394.855479290836</v>
+        <v>1417.05168373068</v>
       </c>
       <c r="F4">
-        <v>24443.1310154965</v>
+        <v>35575.17770987165</v>
       </c>
       <c r="G4">
-        <v>9.345878495719557</v>
+        <v>0.6606993624998112</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -718,27 +791,443 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>21.8106108346</v>
+        <v>0.28161362291724</v>
       </c>
       <c r="C5">
-        <v>543.9818877816559</v>
+        <v>324.9110330247664</v>
       </c>
       <c r="D5">
-        <v>829.0629806745802</v>
+        <v>1091.859037082997</v>
       </c>
       <c r="E5">
-        <v>1394.855479290836</v>
+        <v>1417.05168373068</v>
       </c>
       <c r="F5">
-        <v>24443.15038968634</v>
+        <v>35575.25858971571</v>
       </c>
       <c r="G5">
-        <v>9.346908547154104</v>
+        <v>0.680639040859865</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C6">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D6">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E6">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F6">
+        <v>35575.34992656275</v>
+      </c>
+      <c r="G6">
+        <v>0.7038081714019235</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C7">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D7">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E7">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F7">
+        <v>35575.45099812694</v>
+      </c>
+      <c r="G7">
+        <v>0.7307523244598211</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C8">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D8">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E8">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F8">
+        <v>35575.56455467194</v>
+      </c>
+      <c r="G8">
+        <v>0.7616039398545583</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C9">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D9">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E9">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F9">
+        <v>35575.69366701386</v>
+      </c>
+      <c r="G9">
+        <v>0.7965992632711851</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C10">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D10">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E10">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F10">
+        <v>35575.83646257433</v>
+      </c>
+      <c r="G10">
+        <v>0.8360357589054237</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C11">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D11">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E11">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F11">
+        <v>35575.99413476851</v>
+      </c>
+      <c r="G11">
+        <v>0.8803156244852226</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C12">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D12">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E12">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F12">
+        <v>35576.16809283406</v>
+      </c>
+      <c r="G12">
+        <v>0.929916575064355</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C13">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D13">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E13">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F13">
+        <v>35576.36106154061</v>
+      </c>
+      <c r="G13">
+        <v>0.9853259660240763</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C14">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D14">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E14">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F14">
+        <v>35576.57596672527</v>
+      </c>
+      <c r="G14">
+        <v>1.047170289693918</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C15">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D15">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E15">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F15">
+        <v>35576.81589628436</v>
+      </c>
+      <c r="G15">
+        <v>1.115976474732264</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C16">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D16">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E16">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F16">
+        <v>35577.08357279628</v>
+      </c>
+      <c r="G16">
+        <v>1.191990881979761</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C17">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D17">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E17">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F17">
+        <v>35577.38160892459</v>
+      </c>
+      <c r="G17">
+        <v>1.275110913571684</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C18">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D18">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E18">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F18">
+        <v>35577.71326090474</v>
+      </c>
+      <c r="G18">
+        <v>1.364759030235793</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C19">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D19">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E19">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F19">
+        <v>35578.08070180986</v>
+      </c>
+      <c r="G19">
+        <v>1.459724038914084</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C20">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D20">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E20">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F20">
+        <v>35578.48787524875</v>
+      </c>
+      <c r="G20">
+        <v>1.558547236289633</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0.28161362291724</v>
+      </c>
+      <c r="C21">
+        <v>324.9110330247664</v>
+      </c>
+      <c r="D21">
+        <v>1091.859037082997</v>
+      </c>
+      <c r="E21">
+        <v>1417.05168373068</v>
+      </c>
+      <c r="F21">
+        <v>35578.93829007111</v>
+      </c>
+      <c r="G21">
+        <v>1.659751153585339</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
     </row>
@@ -749,77 +1238,364 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>67.09207642497634</v>
+      </c>
+      <c r="C2">
+        <v>0.0004527938329989404</v>
+      </c>
+      <c r="D2">
+        <v>32.90790080611486</v>
+      </c>
+      <c r="E2">
+        <v>1.972330767694194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>67.09209179121834</v>
+      </c>
+      <c r="C3">
+        <v>0.0005238880742781888</v>
+      </c>
+      <c r="D3">
+        <v>32.90783457720691</v>
+      </c>
+      <c r="E3">
+        <v>1.972394018370595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4">
+        <v>67.09210192885271</v>
+      </c>
+      <c r="C4">
+        <v>0.0006033853561652567</v>
+      </c>
+      <c r="D4">
+        <v>32.90775705066923</v>
+      </c>
+      <c r="E4">
+        <v>1.972468282297142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B5">
+        <v>67.09212182066165</v>
+      </c>
+      <c r="C5">
+        <v>0.0006889281108636371</v>
+      </c>
+      <c r="D5">
+        <v>32.90766555541954</v>
+      </c>
+      <c r="E5">
+        <v>1.972555933693553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>67.42865229161856</v>
-      </c>
-      <c r="C2">
-        <v>31.66578710478957</v>
-      </c>
-      <c r="D2">
-        <v>0.06652610336459418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>67.43850524874158</v>
-      </c>
-      <c r="C3">
-        <v>31.66577106572672</v>
-      </c>
-      <c r="D3">
-        <v>0.06653566699226113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>67.43856199807881</v>
-      </c>
-      <c r="C4">
-        <v>31.6657557627502</v>
-      </c>
-      <c r="D4">
-        <v>0.06655105992280075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>67.43861545144021</v>
-      </c>
-      <c r="C5">
-        <v>31.66573961982083</v>
-      </c>
-      <c r="D5">
-        <v>0.06656730202774849</v>
+      <c r="B6">
+        <v>67.09215311717745</v>
+      </c>
+      <c r="C6">
+        <v>0.00077983435281122</v>
+      </c>
+      <c r="D6">
+        <v>32.90755957418097</v>
+      </c>
+      <c r="E6">
+        <v>1.972657460818777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>67.09219199883101</v>
+      </c>
+      <c r="C7">
+        <v>0.0008776888592303778</v>
+      </c>
+      <c r="D7">
+        <v>32.9074416984967</v>
+      </c>
+      <c r="E7">
+        <v>1.972770366385284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>67.09223921953263</v>
+      </c>
+      <c r="C8">
+        <v>0.0009853504706150834</v>
+      </c>
+      <c r="D8">
+        <v>32.90730840634914</v>
+      </c>
+      <c r="E8">
+        <v>1.972898032943232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>67.09229283036609</v>
+      </c>
+      <c r="C9">
+        <v>0.001107810974171779</v>
+      </c>
+      <c r="D9">
+        <v>32.90715682575783</v>
+      </c>
+      <c r="E9">
+        <v>1.973043216804435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>67.09236147384199</v>
+      </c>
+      <c r="C10">
+        <v>0.001237219210028035</v>
+      </c>
+      <c r="D10">
+        <v>32.90698636680771</v>
+      </c>
+      <c r="E10">
+        <v>1.973206480752369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>67.09244992836953</v>
+      </c>
+      <c r="C11">
+        <v>0.001371945055878291</v>
+      </c>
+      <c r="D11">
+        <v>32.90679416607286</v>
+      </c>
+      <c r="E11">
+        <v>1.973390570576748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>67.09256157704782</v>
+      </c>
+      <c r="C12">
+        <v>0.001511520730827702</v>
+      </c>
+      <c r="D12">
+        <v>32.90657765187605</v>
+      </c>
+      <c r="E12">
+        <v>1.973597950510422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>67.09269954506047</v>
+      </c>
+      <c r="C13">
+        <v>0.001657244818670227</v>
+      </c>
+      <c r="D13">
+        <v>32.90633272757722</v>
+      </c>
+      <c r="E13">
+        <v>1.973832550368347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>67.09287030052064</v>
+      </c>
+      <c r="C14">
+        <v>0.001808504574445954</v>
+      </c>
+      <c r="D14">
+        <v>32.90605398538195</v>
+      </c>
+      <c r="E14">
+        <v>1.974099557392008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>67.09308068033866</v>
+      </c>
+      <c r="C15">
+        <v>0.001964646521609608</v>
+      </c>
+      <c r="D15">
+        <v>32.90573561383384</v>
+      </c>
+      <c r="E15">
+        <v>1.974404547969582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>67.09333709458998</v>
+      </c>
+      <c r="C16">
+        <v>0.002124848128591873</v>
+      </c>
+      <c r="D16">
+        <v>32.90537219359558</v>
+      </c>
+      <c r="E16">
+        <v>1.974752725406943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>67.09364932189409</v>
+      </c>
+      <c r="C17">
+        <v>0.00228598078238657</v>
+      </c>
+      <c r="D17">
+        <v>32.904957007634</v>
+      </c>
+      <c r="E17">
+        <v>1.97515054421322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>67.0940237023092</v>
+      </c>
+      <c r="C18">
+        <v>0.002447916173718539</v>
+      </c>
+      <c r="D18">
+        <v>32.90448343351075</v>
+      </c>
+      <c r="E18">
+        <v>1.975604374283146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>67.09446518728743</v>
+      </c>
+      <c r="C19">
+        <v>0.002610104104911896</v>
+      </c>
+      <c r="D19">
+        <v>32.90394622272206</v>
+      </c>
+      <c r="E19">
+        <v>1.976119273373447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>67.09498323061098</v>
+      </c>
+      <c r="C20">
+        <v>0.002771244231378474</v>
+      </c>
+      <c r="D20">
+        <v>32.90333619659485</v>
+      </c>
+      <c r="E20">
+        <v>1.976704078538795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>67.09558888848383</v>
+      </c>
+      <c r="C21">
+        <v>0.002928474014458276</v>
+      </c>
+      <c r="D21">
+        <v>32.90263868566775</v>
+      </c>
+      <c r="E21">
+        <v>1.977373007497013</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>NPC [USD]</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Total actualized Investment cost [USD]</t>
   </si>
   <si>
-    <t>Salvage Value at year 4 [USD]</t>
+    <t>Salvage Value at year 20 [USD]</t>
   </si>
   <si>
     <t>LCOE [USD/kWh</t>
@@ -43,6 +43,9 @@
     <t>Generator 1 Nominal Capacity [kW]</t>
   </si>
   <si>
+    <t>Generator 2 Nominal Capacity [kW]</t>
+  </si>
+  <si>
     <t>Renewable 1 Nominal Capacity [kW]</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>Generator 1 Investment [USD]</t>
   </si>
   <si>
+    <t>Generator 2 Investment [USD]</t>
+  </si>
+  <si>
     <t>Renewable 1 Investment [USD]</t>
   </si>
   <si>
@@ -97,7 +103,58 @@
     <t>Year 4</t>
   </si>
   <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Year 7</t>
+  </si>
+  <si>
+    <t>Year 8</t>
+  </si>
+  <si>
+    <t>Year 9</t>
+  </si>
+  <si>
+    <t>Year 10</t>
+  </si>
+  <si>
+    <t>Year 11</t>
+  </si>
+  <si>
+    <t>Year 12</t>
+  </si>
+  <si>
+    <t>Year 13</t>
+  </si>
+  <si>
+    <t>Year 14</t>
+  </si>
+  <si>
+    <t>Year 15</t>
+  </si>
+  <si>
+    <t>Year 16</t>
+  </si>
+  <si>
+    <t>Year 17</t>
+  </si>
+  <si>
+    <t>Year 18</t>
+  </si>
+  <si>
+    <t>Year 19</t>
+  </si>
+  <si>
+    <t>Year 20</t>
+  </si>
+  <si>
     <t>Load served by Generator 1 %</t>
+  </si>
+  <si>
+    <t>Load served by Generator 2 %</t>
   </si>
   <si>
     <t>Load served by total RES %</t>
@@ -477,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>128440.216983</v>
+        <v>295870.883208</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>92418.0586911</v>
+        <v>234049.10784</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -493,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>43449.0745365</v>
+        <v>61821.7753677</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -501,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7426.91624477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -509,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4071800575296173</v>
+        <v>0.3304093457883141</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +576,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +592,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5.05958333458</v>
+        <v>0.0343685988048</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -543,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>12.0066984322</v>
+        <v>36.0901058986</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -551,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>10.260412818</v>
+        <v>0.000773455699755</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -559,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4.68660635136e-05</v>
+        <v>27.2894359995</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -567,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>505.958333458</v>
+        <v>0.001798332920082</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -575,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5044.01401136722</v>
+        <v>18.559043354592</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -583,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>37898.8868258466</v>
+        <v>7218.02117972</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -591,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2153659649672218</v>
+        <v>0.9281468397059999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -599,7 +656,23 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>43449.07453663679</v>
+        <v>54578.871999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>5.394998760246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>61821.77536767455</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +682,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,48 +690,48 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>10.11916666916</v>
+        <v>0.3711808670918401</v>
       </c>
       <c r="C2">
-        <v>504.401401136722</v>
+        <v>722.2197840498677</v>
       </c>
       <c r="D2">
-        <v>757.9820438362314</v>
+        <v>1091.685339955205</v>
       </c>
       <c r="E2">
-        <v>1272.502611642113</v>
+        <v>1814.276304872164</v>
       </c>
       <c r="F2">
-        <v>24002.41646778491</v>
+        <v>35576.02469177476</v>
       </c>
       <c r="G2">
-        <v>4.334713039182472</v>
+        <v>0.7982541322620804</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -666,25 +739,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>10.11916666916</v>
+        <v>0.3711808670918401</v>
       </c>
       <c r="C3">
-        <v>504.401401136722</v>
+        <v>722.2197840498677</v>
       </c>
       <c r="D3">
-        <v>757.9820438362314</v>
+        <v>1091.685339955205</v>
       </c>
       <c r="E3">
-        <v>1272.502611642113</v>
+        <v>1814.276304872164</v>
       </c>
       <c r="F3">
-        <v>24004.08996193788</v>
+        <v>35576.09666751218</v>
       </c>
       <c r="G3">
-        <v>4.333205517307803</v>
+        <v>0.8173747443624351</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -692,25 +765,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>10.11916666916</v>
+        <v>0.3711808670918401</v>
       </c>
       <c r="C4">
-        <v>504.401401136722</v>
+        <v>722.2197840498677</v>
       </c>
       <c r="D4">
-        <v>757.9820438362314</v>
+        <v>1091.685339955205</v>
       </c>
       <c r="E4">
-        <v>1272.502611642113</v>
+        <v>1814.276304872164</v>
       </c>
       <c r="F4">
-        <v>24004.0991941295</v>
+        <v>35576.17640765515</v>
       </c>
       <c r="G4">
-        <v>4.33371497862298</v>
+        <v>0.8383750009946102</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -718,27 +791,443 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>10.11916666916</v>
+        <v>0.3711808670918401</v>
       </c>
       <c r="C5">
-        <v>504.401401136722</v>
+        <v>722.2197840498677</v>
       </c>
       <c r="D5">
-        <v>757.9820438362314</v>
+        <v>1091.685339955205</v>
       </c>
       <c r="E5">
-        <v>1272.502611642113</v>
+        <v>1814.276304872164</v>
       </c>
       <c r="F5">
-        <v>24004.10736450143</v>
+        <v>35576.26828023807</v>
       </c>
       <c r="G5">
-        <v>4.334211386930708</v>
+        <v>0.8620796584973027</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C6">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D6">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E6">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F6">
+        <v>35576.37178682209</v>
+      </c>
+      <c r="G6">
+        <v>0.8897504170499587</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C7">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D7">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E7">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F7">
+        <v>35576.4867560025</v>
+      </c>
+      <c r="G7">
+        <v>0.9225060407143475</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C8">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D8">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E8">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F8">
+        <v>35576.61588381077</v>
+      </c>
+      <c r="G8">
+        <v>0.9619115834189294</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C9">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D9">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E9">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F9">
+        <v>35576.76149660935</v>
+      </c>
+      <c r="G9">
+        <v>1.009510383563698</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C10">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D10">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E10">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F10">
+        <v>35576.92414064689</v>
+      </c>
+      <c r="G10">
+        <v>1.065318491174984</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C11">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D11">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E11">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F11">
+        <v>35577.10183779884</v>
+      </c>
+      <c r="G11">
+        <v>1.129309976919589</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C12">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D12">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E12">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F12">
+        <v>35577.29656010856</v>
+      </c>
+      <c r="G12">
+        <v>1.201802342693098</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C13">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D13">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E13">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F13">
+        <v>35577.51278889657</v>
+      </c>
+      <c r="G13">
+        <v>1.282820757874969</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C14">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D14">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E14">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F14">
+        <v>35577.75446436717</v>
+      </c>
+      <c r="G14">
+        <v>1.37201450824051</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C15">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D15">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E15">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F15">
+        <v>35578.0257721881</v>
+      </c>
+      <c r="G15">
+        <v>1.468652028395987</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C16">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D16">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E16">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F16">
+        <v>35578.33069279457</v>
+      </c>
+      <c r="G16">
+        <v>1.572213123728666</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C17">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D17">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E17">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F17">
+        <v>35578.67413798285</v>
+      </c>
+      <c r="G17">
+        <v>1.682267726638861</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C18">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D18">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E18">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F18">
+        <v>35579.06005444584</v>
+      </c>
+      <c r="G18">
+        <v>1.79836657024145</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C19">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D19">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E19">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F19">
+        <v>35579.49298712097</v>
+      </c>
+      <c r="G19">
+        <v>1.919892149598085</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C20">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D20">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E20">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F20">
+        <v>35579.98074800181</v>
+      </c>
+      <c r="G20">
+        <v>2.045897355990387</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0.3711808670918401</v>
+      </c>
+      <c r="C21">
+        <v>722.2197840498677</v>
+      </c>
+      <c r="D21">
+        <v>1091.685339955205</v>
+      </c>
+      <c r="E21">
+        <v>1814.276304872164</v>
+      </c>
+      <c r="F21">
+        <v>35580.5291117245</v>
+      </c>
+      <c r="G21">
+        <v>2.17513696100748</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
     </row>
@@ -749,77 +1238,364 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>67.09392148527729</v>
+      </c>
+      <c r="C2">
+        <v>0.0004600934220018267</v>
+      </c>
+      <c r="D2">
+        <v>32.90616400129353</v>
+      </c>
+      <c r="E2">
+        <v>1.969011453040163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>67.09395299220276</v>
+      </c>
+      <c r="C3">
+        <v>0.0005273157791515244</v>
+      </c>
+      <c r="D3">
+        <v>32.90609171609231</v>
+      </c>
+      <c r="E3">
+        <v>1.969080408781062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4">
+        <v>67.09399228807878</v>
+      </c>
+      <c r="C4">
+        <v>0.0005989585443018534</v>
+      </c>
+      <c r="D4">
+        <v>32.90599547106378</v>
+      </c>
+      <c r="E4">
+        <v>1.969172616582812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B5">
+        <v>67.09404964702905</v>
+      </c>
+      <c r="C5">
+        <v>0.0006737085421411004</v>
+      </c>
+      <c r="D5">
+        <v>32.90587993663917</v>
+      </c>
+      <c r="E5">
+        <v>1.96928332491612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>66.22263121857034</v>
-      </c>
-      <c r="C2">
-        <v>28.94902304812883</v>
-      </c>
-      <c r="D2">
-        <v>0.06535106619399186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>66.2272483864416</v>
-      </c>
-      <c r="C3">
-        <v>28.94902559596199</v>
-      </c>
-      <c r="D3">
-        <v>0.06534522275763031</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>66.22727385804464</v>
-      </c>
-      <c r="C4">
-        <v>28.94902186730531</v>
-      </c>
-      <c r="D4">
-        <v>0.06534912035252322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>66.22729640008853</v>
-      </c>
-      <c r="C5">
-        <v>28.9490176418287</v>
-      </c>
-      <c r="D5">
-        <v>0.06535354161400719</v>
+      <c r="B6">
+        <v>67.09412633182352</v>
+      </c>
+      <c r="C6">
+        <v>0.0007501451709354479</v>
+      </c>
+      <c r="D6">
+        <v>32.90574615052806</v>
+      </c>
+      <c r="E6">
+        <v>1.969411519420844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>67.09422251749933</v>
+      </c>
+      <c r="C7">
+        <v>0.0008279470758027341</v>
+      </c>
+      <c r="D7">
+        <v>32.90559507857262</v>
+      </c>
+      <c r="E7">
+        <v>1.969556255950803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>67.09434247619919</v>
+      </c>
+      <c r="C8">
+        <v>0.0009076382040037815</v>
+      </c>
+      <c r="D8">
+        <v>32.9054230039156</v>
+      </c>
+      <c r="E8">
+        <v>1.969721085345531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>67.0944885619376</v>
+      </c>
+      <c r="C9">
+        <v>0.0009905299032946457</v>
+      </c>
+      <c r="D9">
+        <v>32.90522733757599</v>
+      </c>
+      <c r="E9">
+        <v>1.969908474543833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>67.09466265927053</v>
+      </c>
+      <c r="C10">
+        <v>0.001076071192888974</v>
+      </c>
+      <c r="D10">
+        <v>32.9050067656886</v>
+      </c>
+      <c r="E10">
+        <v>1.970119685447855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>67.09487207682808</v>
+      </c>
+      <c r="C11">
+        <v>0.001157142768988394</v>
+      </c>
+      <c r="D11">
+        <v>32.90476106491484</v>
+      </c>
+      <c r="E11">
+        <v>1.970354932964648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>67.09512216455875</v>
+      </c>
+      <c r="C12">
+        <v>0.001232692935989258</v>
+      </c>
+      <c r="D12">
+        <v>32.9044861613522</v>
+      </c>
+      <c r="E12">
+        <v>1.970618127231196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>67.09542156848946</v>
+      </c>
+      <c r="C13">
+        <v>0.001302596274723506</v>
+      </c>
+      <c r="D13">
+        <v>32.90417355437707</v>
+      </c>
+      <c r="E13">
+        <v>1.970917436094189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>67.09577550164995</v>
+      </c>
+      <c r="C14">
+        <v>0.001368283189763329</v>
+      </c>
+      <c r="D14">
+        <v>32.90381635629389</v>
+      </c>
+      <c r="E14">
+        <v>1.97125948225729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>67.09618987713775</v>
+      </c>
+      <c r="C15">
+        <v>0.001431031154914797</v>
+      </c>
+      <c r="D15">
+        <v>32.90340685957886</v>
+      </c>
+      <c r="E15">
+        <v>1.971651681191822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>67.09667353496368</v>
+      </c>
+      <c r="C16">
+        <v>0.001489980441264993</v>
+      </c>
+      <c r="D16">
+        <v>32.90293672534432</v>
+      </c>
+      <c r="E16">
+        <v>1.972102051603902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>67.09723605596012</v>
+      </c>
+      <c r="C17">
+        <v>0.001544926339149562</v>
+      </c>
+      <c r="D17">
+        <v>32.90239627798444</v>
+      </c>
+      <c r="E17">
+        <v>1.972619895025423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>67.09788486206978</v>
+      </c>
+      <c r="C18">
+        <v>0.001595882601894724</v>
+      </c>
+      <c r="D18">
+        <v>32.90177776625787</v>
+      </c>
+      <c r="E18">
+        <v>1.973212663463857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>67.0986278094765</v>
+      </c>
+      <c r="C19">
+        <v>0.00164331055977782</v>
+      </c>
+      <c r="D19">
+        <v>32.90107243766463</v>
+      </c>
+      <c r="E19">
+        <v>1.973888772627972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>67.09947985210513</v>
+      </c>
+      <c r="C20">
+        <v>0.001687067760808025</v>
+      </c>
+      <c r="D20">
+        <v>32.90026481729124</v>
+      </c>
+      <c r="E20">
+        <v>1.974663101202984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>67.10045148818962</v>
+      </c>
+      <c r="C21">
+        <v>0.001727407295656986</v>
+      </c>
+      <c r="D21">
+        <v>32.89933599805073</v>
+      </c>
+      <c r="E21">
+        <v>1.975553969290378</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -17,12 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>NPC [USD]</t>
   </si>
   <si>
     <t>Total actualized Operation cost [USD]</t>
+  </si>
+  <si>
+    <t>Total non-actualized Operation cost [USD]</t>
   </si>
   <si>
     <t>Total actualized Investment cost [USD]</t>
@@ -518,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>295870.883208</v>
+        <v>684292.1092358828</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -542,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>234049.10784</v>
+        <v>344789.3264219736</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61821.7753677</v>
+        <v>1208429.160301004</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>339502.7828139091</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,7 +569,15 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3304093457883141</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.5530155544813214</v>
       </c>
     </row>
   </sheetData>
@@ -584,95 +595,95 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0343685988048</v>
+        <v>259.044241780225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>36.0901058986</v>
+        <v>8.790942075731278</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.000773455699755</v>
+        <v>29.52524596429128</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>27.2894359995</v>
+        <v>81.14510322077447</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.001798332920082</v>
+        <v>0.04673407958093076</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>18.559043354592</v>
+        <v>139883.8905613215</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>7218.02117972</v>
+        <v>1758.188415146256</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9281468397059999</v>
+        <v>35430.29515714954</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>54578.871999</v>
+        <v>162290.2064415489</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>5.394998760246</v>
+        <v>140.2022387427923</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>61821.77536767455</v>
+        <v>339502.7828139091</v>
       </c>
     </row>
   </sheetData>
@@ -690,48 +701,48 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C2">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D2">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E2">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F2">
-        <v>35576.02469177476</v>
+        <v>57051.97136767645</v>
       </c>
       <c r="G2">
-        <v>0.7982541322620804</v>
+        <v>817.0714363662507</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -739,25 +750,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C3">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D3">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E3">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F3">
-        <v>35576.09666751218</v>
+        <v>16033.19343964422</v>
       </c>
       <c r="G3">
-        <v>0.8173747443624351</v>
+        <v>3008.719659570484</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -765,25 +776,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C4">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D4">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E4">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F4">
-        <v>35576.17640765515</v>
+        <v>20052.48318740476</v>
       </c>
       <c r="G4">
-        <v>0.8383750009946102</v>
+        <v>3438.676740185465</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -791,25 +802,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C5">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D5">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E5">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F5">
-        <v>35576.26828023807</v>
+        <v>20053.91012919747</v>
       </c>
       <c r="G5">
-        <v>0.8620796584973027</v>
+        <v>3441.056428179532</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -817,25 +828,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C6">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D6">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E6">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F6">
-        <v>35576.37178682209</v>
+        <v>20053.90923795616</v>
       </c>
       <c r="G6">
-        <v>0.8897504170499587</v>
+        <v>3441.057442020471</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -843,25 +854,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C7">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D7">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E7">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F7">
-        <v>35576.4867560025</v>
+        <v>20053.90787148782</v>
       </c>
       <c r="G7">
-        <v>0.9225060407143475</v>
+        <v>3441.058863833568</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -869,25 +880,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C8">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D8">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E8">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F8">
-        <v>35576.61588381077</v>
+        <v>20062.41409661426</v>
       </c>
       <c r="G8">
-        <v>0.9619115834189294</v>
+        <v>3442.753773726572</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -895,25 +906,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C9">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D9">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E9">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F9">
-        <v>35576.76149660935</v>
+        <v>28198.01096953369</v>
       </c>
       <c r="G9">
-        <v>1.009510383563698</v>
+        <v>4648.333180591512</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -921,25 +932,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C10">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D10">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E10">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F10">
-        <v>35576.92414064689</v>
+        <v>28210.6132739048</v>
       </c>
       <c r="G10">
-        <v>1.065318491174984</v>
+        <v>4653.134530855767</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -947,25 +958,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C11">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D11">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E11">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F11">
-        <v>35577.10183779884</v>
+        <v>28210.65657444497</v>
       </c>
       <c r="G11">
-        <v>1.129309976919589</v>
+        <v>4653.145107365141</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -973,25 +984,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C12">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D12">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E12">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F12">
-        <v>35577.29656010856</v>
+        <v>28210.65664772076</v>
       </c>
       <c r="G12">
-        <v>1.201802342693098</v>
+        <v>4653.145113663835</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -999,25 +1010,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C13">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D13">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E13">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F13">
-        <v>35577.51278889657</v>
+        <v>28210.65683001406</v>
       </c>
       <c r="G13">
-        <v>1.282820757874969</v>
+        <v>4653.145145736068</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1025,25 +1036,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C14">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D14">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E14">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F14">
-        <v>35577.75446436717</v>
+        <v>28210.64190103255</v>
       </c>
       <c r="G14">
-        <v>1.37201450824051</v>
+        <v>4653.144494428337</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1051,25 +1062,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C15">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D15">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E15">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F15">
-        <v>35578.0257721881</v>
+        <v>28207.80277765167</v>
       </c>
       <c r="G15">
-        <v>1.468652028395987</v>
+        <v>4654.051906349713</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1077,25 +1088,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C16">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D16">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E16">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F16">
-        <v>35578.33069279457</v>
+        <v>50128.75465189757</v>
       </c>
       <c r="G16">
-        <v>1.572213123728666</v>
+        <v>6695.975572888681</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,25 +1114,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C17">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D17">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E17">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F17">
-        <v>35578.67413798285</v>
+        <v>50133.93109346279</v>
       </c>
       <c r="G17">
-        <v>1.682267726638861</v>
+        <v>6696.7463358407</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1129,25 +1140,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C18">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D18">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E18">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F18">
-        <v>35579.06005444584</v>
+        <v>50133.94914189805</v>
       </c>
       <c r="G18">
-        <v>1.79836657024145</v>
+        <v>6696.749674025888</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1155,25 +1166,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C19">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D19">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E19">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F19">
-        <v>35579.49298712097</v>
+        <v>50133.95500765796</v>
       </c>
       <c r="G19">
-        <v>1.919892149598085</v>
+        <v>6696.751165969466</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1181,25 +1192,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C20">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D20">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E20">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F20">
-        <v>35579.98074800181</v>
+        <v>50133.57070930086</v>
       </c>
       <c r="G20">
-        <v>2.045897355990387</v>
+        <v>6697.007495432222</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1207,25 +1218,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>0.3711808670918401</v>
+        <v>2797.677811226431</v>
       </c>
       <c r="C21">
-        <v>722.2197840498677</v>
+        <v>16119.45166223192</v>
       </c>
       <c r="D21">
-        <v>1091.685339955205</v>
+        <v>3248.608173605835</v>
       </c>
       <c r="E21">
-        <v>1814.276304872164</v>
+        <v>22165.73764706418</v>
       </c>
       <c r="F21">
-        <v>35580.5291117245</v>
+        <v>49776.44517106898</v>
       </c>
       <c r="G21">
-        <v>2.17513696100748</v>
+        <v>6771.249213121678</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1246,356 +1257,356 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>67.09392148527729</v>
+        <v>0.5601546202220318</v>
       </c>
       <c r="C2">
-        <v>0.0004600934220018267</v>
+        <v>177.1732170738912</v>
       </c>
       <c r="D2">
-        <v>32.90616400129353</v>
+        <v>-76.30393241909574</v>
       </c>
       <c r="E2">
-        <v>1.969011453040163</v>
+        <v>64.30804469059707</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>67.09395299220276</v>
+        <v>0.1867034062649348</v>
       </c>
       <c r="C3">
-        <v>0.0005273157791515244</v>
+        <v>49.54230750361753</v>
       </c>
       <c r="D3">
-        <v>32.90609171609231</v>
+        <v>52.39163056173456</v>
       </c>
       <c r="E3">
-        <v>1.969080408781062</v>
+        <v>33.94579763650819</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>67.09399228807878</v>
+        <v>0.1498158645022371</v>
       </c>
       <c r="C4">
-        <v>0.0005989585443018534</v>
+        <v>49.26628117350463</v>
       </c>
       <c r="D4">
-        <v>32.90599547106378</v>
+        <v>52.77261296895107</v>
       </c>
       <c r="E4">
-        <v>1.969172616582812</v>
+        <v>22.79362480452099</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>67.09404964702905</v>
+        <v>0.1498322059091065</v>
       </c>
       <c r="C5">
-        <v>0.0006737085421411004</v>
+        <v>49.27006790225897</v>
       </c>
       <c r="D5">
-        <v>32.90587993663917</v>
+        <v>52.8016298903628</v>
       </c>
       <c r="E5">
-        <v>1.96928332491612</v>
+        <v>22.77103432801301</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>67.09412633182352</v>
+        <v>0.1498322136037502</v>
       </c>
       <c r="C6">
-        <v>0.0007501451709354479</v>
+        <v>49.27006579734459</v>
       </c>
       <c r="D6">
-        <v>32.90574615052806</v>
+        <v>52.8016389665333</v>
       </c>
       <c r="E6">
-        <v>1.969411519420844</v>
+        <v>22.77102782789234</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>67.09422251749933</v>
+        <v>0.1498322377019236</v>
       </c>
       <c r="C7">
-        <v>0.0008279470758027341</v>
+        <v>49.27006294875459</v>
       </c>
       <c r="D7">
-        <v>32.90559507857262</v>
+        <v>52.80164998933265</v>
       </c>
       <c r="E7">
-        <v>1.969556255950803</v>
+        <v>22.77102005410344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>67.09434247619919</v>
+        <v>0.1499476236911056</v>
       </c>
       <c r="C8">
-        <v>0.0009076382040037815</v>
+        <v>49.29548642386209</v>
       </c>
       <c r="D8">
-        <v>32.9054230039156</v>
+        <v>52.82123697789621</v>
       </c>
       <c r="E8">
-        <v>1.969721085345531</v>
+        <v>22.75258708371539</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>67.0944885619376</v>
+        <v>0.1338197726817294</v>
       </c>
       <c r="C9">
-        <v>0.0009905299032946457</v>
+        <v>55.39714106944587</v>
       </c>
       <c r="D9">
-        <v>32.90522733757599</v>
+        <v>51.21318726545663</v>
       </c>
       <c r="E9">
-        <v>1.969908474543833</v>
+        <v>8.569557682818244</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10">
-        <v>67.09466265927053</v>
+        <v>0.1339205799768165</v>
       </c>
       <c r="C10">
-        <v>0.001076071192888974</v>
+        <v>55.42653161389591</v>
       </c>
       <c r="D10">
-        <v>32.9050067656886</v>
+        <v>51.22510823036027</v>
       </c>
       <c r="E10">
-        <v>1.970119685447855</v>
+        <v>8.55712029054952</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>67.09487207682808</v>
+        <v>0.1339208153168939</v>
       </c>
       <c r="C11">
-        <v>0.001157142768988394</v>
+        <v>55.42664430049905</v>
       </c>
       <c r="D11">
-        <v>32.90476106491484</v>
+        <v>51.22511498841887</v>
       </c>
       <c r="E11">
-        <v>1.970354932964648</v>
+        <v>8.55710825270001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>67.09512216455875</v>
+        <v>0.1339208152657318</v>
       </c>
       <c r="C12">
-        <v>0.001232692935989258</v>
+        <v>55.42664451466324</v>
       </c>
       <c r="D12">
-        <v>32.9044861613522</v>
+        <v>51.2251149617883</v>
       </c>
       <c r="E12">
-        <v>1.970618127231196</v>
+        <v>8.557108266482521</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <v>67.09542156848946</v>
+        <v>0.1339208159064901</v>
       </c>
       <c r="C13">
-        <v>0.001302596274723506</v>
+        <v>55.42664511870121</v>
       </c>
       <c r="D13">
-        <v>32.90417355437707</v>
+        <v>51.22511493367335</v>
       </c>
       <c r="E13">
-        <v>1.970917436094189</v>
+        <v>8.557108266557673</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>67.09577550164995</v>
+        <v>0.1339210331084404</v>
       </c>
       <c r="C14">
-        <v>0.001368283189763329</v>
+        <v>55.42659150716624</v>
       </c>
       <c r="D14">
-        <v>32.90381635629389</v>
+        <v>51.22512501043786</v>
       </c>
       <c r="E14">
-        <v>1.97125948225729</v>
+        <v>8.557101286563457</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>67.09618987713775</v>
+        <v>0.1338967693262325</v>
       </c>
       <c r="C15">
-        <v>0.001431031154914797</v>
+        <v>55.41300730022942</v>
       </c>
       <c r="D15">
-        <v>32.90340685957886</v>
+        <v>51.22971641742242</v>
       </c>
       <c r="E15">
-        <v>1.971651681191822</v>
+        <v>8.553373155057733</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>67.09667353496368</v>
+        <v>3.585410586937255</v>
       </c>
       <c r="C16">
-        <v>0.001489980441264993</v>
+        <v>80.70186853659051</v>
       </c>
       <c r="D16">
-        <v>32.90293672534432</v>
+        <v>33.37757512645955</v>
       </c>
       <c r="E16">
-        <v>1.972102051603902</v>
+        <v>11.48133473885303</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>67.09723605596012</v>
+        <v>3.586722069540643</v>
       </c>
       <c r="C17">
-        <v>0.001544926339149562</v>
+        <v>80.70217919728945</v>
       </c>
       <c r="D17">
-        <v>32.90239627798444</v>
+        <v>33.37706588805753</v>
       </c>
       <c r="E17">
-        <v>1.972619895025423</v>
+        <v>11.48113758964798</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18">
-        <v>67.09788486206978</v>
+        <v>3.586720358588633</v>
       </c>
       <c r="C18">
-        <v>0.001595882601894724</v>
+        <v>80.70217946198265</v>
       </c>
       <c r="D18">
-        <v>32.90177776625787</v>
+        <v>33.37706505180481</v>
       </c>
       <c r="E18">
-        <v>1.973212663463857</v>
+        <v>11.48113579572539</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19">
-        <v>67.0986278094765</v>
+        <v>3.586713232956493</v>
       </c>
       <c r="C19">
-        <v>0.00164331055977782</v>
+        <v>80.70218000755887</v>
       </c>
       <c r="D19">
-        <v>32.90107243766463</v>
+        <v>33.37706564692836</v>
       </c>
       <c r="E19">
-        <v>1.973888772627972</v>
+        <v>11.48113445928186</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>67.09947985210513</v>
+        <v>3.586222888978516</v>
       </c>
       <c r="C20">
-        <v>0.001687067760808025</v>
+        <v>80.7021970983368</v>
       </c>
       <c r="D20">
-        <v>32.90026481729124</v>
+        <v>33.3788112135558</v>
       </c>
       <c r="E20">
-        <v>1.974663101202984</v>
+        <v>11.47965061256376</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>67.10045148818962</v>
+        <v>3.663985342775452</v>
       </c>
       <c r="C21">
-        <v>0.001727407295656986</v>
+        <v>80.51277236160288</v>
       </c>
       <c r="D21">
-        <v>32.89933599805073</v>
+        <v>33.92066843873147</v>
       </c>
       <c r="E21">
-        <v>1.975553969290378</v>
+        <v>11.06029561061523</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>684292.1092358828</v>
+        <v>881263.5856249999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>344789.3264219736</v>
+        <v>181390.125184</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1208429.160301004</v>
+        <v>708378.293358</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>339502.7828139091</v>
+        <v>699873.4604409999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -577,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5530155544813214</v>
+        <v>0.6805021261686089</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>259.044241780225</v>
+        <v>533.086236485</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>8.790942075731278</v>
+        <v>28.0283032253</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -619,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>29.52524596429128</v>
+        <v>0.016150133392</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -627,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>81.14510322077447</v>
+        <v>171.934662575</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -635,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04673407958093076</v>
+        <v>20.8375089279</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -643,7 +643,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>139883.8905613215</v>
+        <v>287866.5677019</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -651,7 +651,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1758.188415146256</v>
+        <v>5605.66064506</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -659,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>35430.29515714954</v>
+        <v>19.3801600704</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -667,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>162290.2064415489</v>
+        <v>343869.32515</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -675,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>140.2022387427923</v>
+        <v>62512.5267837</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -683,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>339502.7828139091</v>
+        <v>699873.4604407303</v>
       </c>
     </row>
   </sheetData>
@@ -727,22 +727,22 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C2">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D2">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E2">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F2">
-        <v>57051.97136767645</v>
+        <v>10.26666487699951</v>
       </c>
       <c r="G2">
-        <v>817.0714363662507</v>
+        <v>8901.973929389767</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C3">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D3">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E3">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F3">
-        <v>16033.19343964422</v>
+        <v>8.713501243434349</v>
       </c>
       <c r="G3">
-        <v>3008.719659570484</v>
+        <v>8921.29360126965</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -779,22 +779,22 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C4">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D4">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E4">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F4">
-        <v>20052.48318740476</v>
+        <v>72.62322237708076</v>
       </c>
       <c r="G4">
-        <v>3438.676740185465</v>
+        <v>11037.6794280729</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -805,22 +805,22 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C5">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D5">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E5">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F5">
-        <v>20053.91012919747</v>
+        <v>91.01999848860085</v>
       </c>
       <c r="G5">
-        <v>3441.056428179532</v>
+        <v>11035.3890742394</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C6">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D6">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E6">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F6">
-        <v>20053.90923795616</v>
+        <v>90.89915593917038</v>
       </c>
       <c r="G6">
-        <v>3441.057442020471</v>
+        <v>11035.41157114422</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -857,22 +857,22 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C7">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D7">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E7">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F7">
-        <v>20053.90787148782</v>
+        <v>92.29260687403114</v>
       </c>
       <c r="G7">
-        <v>3441.058863833568</v>
+        <v>11035.15215792765</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -883,22 +883,22 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C8">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D8">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E8">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F8">
-        <v>20062.41409661426</v>
+        <v>86.06974713480078</v>
       </c>
       <c r="G8">
-        <v>3442.753773726572</v>
+        <v>11036.31439383156</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C9">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D9">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E9">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F9">
-        <v>28198.01096953369</v>
+        <v>3766.661691524581</v>
       </c>
       <c r="G9">
-        <v>4648.333180591512</v>
+        <v>14754.89891929363</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -935,22 +935,22 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C10">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D10">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E10">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F10">
-        <v>28210.6132739048</v>
+        <v>3732.57922245498</v>
       </c>
       <c r="G10">
-        <v>4653.134530855767</v>
+        <v>14761.24443967141</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -961,22 +961,22 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C11">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D11">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E11">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F11">
-        <v>28210.65657444497</v>
+        <v>3739.642232258679</v>
       </c>
       <c r="G11">
-        <v>4653.145107365141</v>
+        <v>14759.92952075165</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -987,22 +987,22 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C12">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D12">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E12">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F12">
-        <v>28210.65664772076</v>
+        <v>3739.627197121625</v>
       </c>
       <c r="G12">
-        <v>4653.145113663835</v>
+        <v>14759.93231987801</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1013,22 +1013,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C13">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D13">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E13">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F13">
-        <v>28210.65683001406</v>
+        <v>3739.629627440963</v>
       </c>
       <c r="G13">
-        <v>4653.145145736068</v>
+        <v>14759.93186743954</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1039,22 +1039,22 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C14">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D14">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E14">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F14">
-        <v>28210.64190103255</v>
+        <v>3740.026234171446</v>
       </c>
       <c r="G14">
-        <v>4653.144494428337</v>
+        <v>14759.85803017139</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1065,22 +1065,22 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C15">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D15">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E15">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F15">
-        <v>28207.80277765167</v>
+        <v>3755.748012861778</v>
       </c>
       <c r="G15">
-        <v>4654.051906349713</v>
+        <v>14756.93226478665</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1091,22 +1091,22 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C16">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D16">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E16">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F16">
-        <v>50128.75465189757</v>
+        <v>21981.41623442561</v>
       </c>
       <c r="G16">
-        <v>6695.975572888681</v>
+        <v>14041.06698898695</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1117,22 +1117,22 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C17">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D17">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E17">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F17">
-        <v>50133.93109346279</v>
+        <v>22015.05464370237</v>
       </c>
       <c r="G17">
-        <v>6696.7463358407</v>
+        <v>14045.13175366127</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C18">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D18">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E18">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F18">
-        <v>50133.94914189805</v>
+        <v>22015.3401029741</v>
       </c>
       <c r="G18">
-        <v>6696.749674025888</v>
+        <v>14045.18489499017</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1169,22 +1169,22 @@
         <v>42</v>
       </c>
       <c r="B19">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C19">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D19">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E19">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F19">
-        <v>50133.95500765796</v>
+        <v>22015.31552407677</v>
       </c>
       <c r="G19">
-        <v>6696.751165969466</v>
+        <v>14045.1803190899</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1195,22 +1195,22 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C20">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D20">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E20">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F20">
-        <v>50133.57070930086</v>
+        <v>22015.94663418807</v>
       </c>
       <c r="G20">
-        <v>6697.007495432222</v>
+        <v>14045.29781027312</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1221,22 +1221,22 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <v>2797.677811226431</v>
+        <v>5757.331354038</v>
       </c>
       <c r="C21">
-        <v>16119.45166223192</v>
+        <v>569.2871365376801</v>
       </c>
       <c r="D21">
-        <v>3248.608173605835</v>
+        <v>8127.637038674</v>
       </c>
       <c r="E21">
-        <v>22165.73764706418</v>
+        <v>14454.25552924968</v>
       </c>
       <c r="F21">
-        <v>49776.44517106898</v>
+        <v>22003.46475807035</v>
       </c>
       <c r="G21">
-        <v>6771.249213121678</v>
+        <v>14043.04247608964</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1274,16 +1274,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0.5601546202220318</v>
+        <v>0.006149356996374144</v>
       </c>
       <c r="C2">
-        <v>177.1732170738912</v>
+        <v>0.02436318937933031</v>
       </c>
       <c r="D2">
-        <v>-76.30393241909574</v>
+        <v>106.0371181402666</v>
       </c>
       <c r="E2">
-        <v>64.30804469059707</v>
+        <v>55.23760786637101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1291,16 +1291,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0.1867034062649348</v>
+        <v>0.004590476351806553</v>
       </c>
       <c r="C3">
-        <v>49.54230750361753</v>
+        <v>0.02143693627413258</v>
       </c>
       <c r="D3">
-        <v>52.39163056173456</v>
+        <v>106.26722311305</v>
       </c>
       <c r="E3">
-        <v>33.94579763650819</v>
+        <v>55.14154327188311</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1308,16 +1308,16 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>0.1498158645022371</v>
+        <v>0.1310368413605871</v>
       </c>
       <c r="C4">
-        <v>49.26628117350463</v>
+        <v>0.01848223917845942</v>
       </c>
       <c r="D4">
-        <v>52.77261296895107</v>
+        <v>105.9224020357453</v>
       </c>
       <c r="E4">
-        <v>22.79362480452099</v>
+        <v>43.09770419000218</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1325,16 +1325,16 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>0.1498322059091065</v>
+        <v>0.1680828095592418</v>
       </c>
       <c r="C5">
-        <v>49.27006790225897</v>
+        <v>0.01851018965716523</v>
       </c>
       <c r="D5">
-        <v>52.8016298903628</v>
+        <v>105.9347456369335</v>
       </c>
       <c r="E5">
-        <v>22.77103432801301</v>
+        <v>43.0825140802494</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1342,16 +1342,16 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>0.1498322136037502</v>
+        <v>0.1678393097182145</v>
       </c>
       <c r="C6">
-        <v>49.27006579734459</v>
+        <v>0.01851019538659774</v>
       </c>
       <c r="D6">
-        <v>52.8016389665333</v>
+        <v>105.9347456381713</v>
       </c>
       <c r="E6">
-        <v>22.77102782789234</v>
+        <v>43.08257034390343</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1359,16 +1359,16 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>0.1498322377019236</v>
+        <v>0.1706469812070397</v>
       </c>
       <c r="C7">
-        <v>49.27006294875459</v>
+        <v>0.01851031828857077</v>
       </c>
       <c r="D7">
-        <v>52.80164998933265</v>
+        <v>105.9347456798529</v>
       </c>
       <c r="E7">
-        <v>22.77102005410344</v>
+        <v>43.08192153188168</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1376,16 +1376,16 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>0.1499476236911056</v>
+        <v>0.1580776571893881</v>
       </c>
       <c r="C8">
-        <v>49.29548642386209</v>
+        <v>0.01854704447014374</v>
       </c>
       <c r="D8">
-        <v>52.82123697789621</v>
+        <v>105.9347620864378</v>
       </c>
       <c r="E8">
-        <v>22.75258708371539</v>
+        <v>43.08480875732312</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1393,16 +1393,16 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>0.1338197726817294</v>
+        <v>5.156537758480843</v>
       </c>
       <c r="C9">
-        <v>55.39714106944587</v>
+        <v>0.02334000382108572</v>
       </c>
       <c r="D9">
-        <v>51.21318726545663</v>
+        <v>100.4404385496902</v>
       </c>
       <c r="E9">
-        <v>8.569557682818244</v>
+        <v>20.10651668097542</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1410,16 +1410,16 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>0.1339205799768165</v>
+        <v>5.109701348608501</v>
       </c>
       <c r="C10">
-        <v>55.42653161389591</v>
+        <v>0.02334352120887271</v>
       </c>
       <c r="D10">
-        <v>51.22510823036027</v>
+        <v>100.4404306440267</v>
       </c>
       <c r="E10">
-        <v>8.55712029054952</v>
+        <v>20.11364800307939</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1427,16 +1427,16 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>0.1339208153168939</v>
+        <v>5.119406772722357</v>
       </c>
       <c r="C11">
-        <v>55.42664430049905</v>
+        <v>0.0233435439888775</v>
       </c>
       <c r="D11">
-        <v>51.22511498841887</v>
+        <v>100.4404306355573</v>
       </c>
       <c r="E11">
-        <v>8.55710825270001</v>
+        <v>20.11217096947526</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1444,16 +1444,16 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>0.1339208152657318</v>
+        <v>5.119386113538319</v>
       </c>
       <c r="C12">
-        <v>55.42664451466324</v>
+        <v>0.02334354285202083</v>
       </c>
       <c r="D12">
-        <v>51.2251149617883</v>
+        <v>100.4404306347396</v>
       </c>
       <c r="E12">
-        <v>8.557108266482521</v>
+        <v>20.11217411408981</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1461,16 +1461,16 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>0.1339208159064901</v>
+        <v>5.11938945317551</v>
       </c>
       <c r="C13">
-        <v>55.42664511870121</v>
+        <v>0.02334354275544633</v>
       </c>
       <c r="D13">
-        <v>51.22511493367335</v>
+        <v>100.4404306346396</v>
       </c>
       <c r="E13">
-        <v>8.557108266557673</v>
+        <v>20.11217360596892</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1478,16 +1478,16 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>0.1339210331084404</v>
+        <v>5.119934441563851</v>
       </c>
       <c r="C14">
-        <v>55.42659150716624</v>
+        <v>0.02334354030485455</v>
       </c>
       <c r="D14">
-        <v>51.22512501043786</v>
+        <v>100.4404306329202</v>
       </c>
       <c r="E14">
-        <v>8.557101286563457</v>
+        <v>20.11209067406496</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1495,16 +1495,16 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>0.1338967693262325</v>
+        <v>5.141536360845534</v>
       </c>
       <c r="C15">
-        <v>55.41300730022942</v>
+        <v>0.02334563728929531</v>
       </c>
       <c r="D15">
-        <v>51.22971641742242</v>
+        <v>100.4404212188214</v>
       </c>
       <c r="E15">
-        <v>8.553373155057733</v>
+        <v>20.10881075678516</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1512,16 +1512,16 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>3.585410586937255</v>
+        <v>22.1339819558098</v>
       </c>
       <c r="C16">
-        <v>80.70186853659051</v>
+        <v>0.0229770276501979</v>
       </c>
       <c r="D16">
-        <v>33.37757512645955</v>
+        <v>81.70533706558732</v>
       </c>
       <c r="E16">
-        <v>11.48133473885303</v>
+        <v>9.933065620749911</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1529,16 +1529,16 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>3.586722069540643</v>
+        <v>22.16785422371817</v>
       </c>
       <c r="C17">
-        <v>80.70217919728945</v>
+        <v>0.02301172379000663</v>
       </c>
       <c r="D17">
-        <v>33.37706588805753</v>
+        <v>81.70534778390657</v>
       </c>
       <c r="E17">
-        <v>11.48113758964798</v>
+        <v>9.930136536273798</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1546,16 +1546,16 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>3.586720358588633</v>
+        <v>22.16814191306015</v>
       </c>
       <c r="C18">
-        <v>80.70217946198265</v>
+        <v>0.02301172158868695</v>
       </c>
       <c r="D18">
-        <v>33.37706505180481</v>
+        <v>81.70534777355519</v>
       </c>
       <c r="E18">
-        <v>11.48113579572539</v>
+        <v>9.93011177933306</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1563,16 +1563,16 @@
         <v>42</v>
       </c>
       <c r="B19">
-        <v>3.586713232956493</v>
+        <v>22.1681171419177</v>
       </c>
       <c r="C19">
-        <v>80.70218000755887</v>
+        <v>0.02301172205523605</v>
       </c>
       <c r="D19">
-        <v>33.37706564692836</v>
+        <v>81.70534777424575</v>
       </c>
       <c r="E19">
-        <v>11.48113445928186</v>
+        <v>9.930113911144788</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1580,16 +1580,16 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>3.586222888978516</v>
+        <v>22.16875332052011</v>
       </c>
       <c r="C20">
-        <v>80.7021970983368</v>
+        <v>0.02301155031108055</v>
       </c>
       <c r="D20">
-        <v>33.3788112135558</v>
+        <v>81.70534761631041</v>
       </c>
       <c r="E20">
-        <v>11.47965061256376</v>
+        <v>9.930059297014294</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1597,16 +1597,16 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <v>3.663985342775452</v>
+        <v>22.15501801105849</v>
       </c>
       <c r="C21">
-        <v>80.51277236160288</v>
+        <v>0.02440822884000263</v>
       </c>
       <c r="D21">
-        <v>33.92066843873147</v>
+        <v>81.70554154032622</v>
       </c>
       <c r="E21">
-        <v>11.06029561061523</v>
+        <v>9.930953449960974</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>881263.5856249999</v>
+        <v>881252.825989</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>181390.125184</v>
+        <v>181252.968612</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>708378.293358</v>
+        <v>707961.514072</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>699873.4604409999</v>
+        <v>699999.857377</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -577,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6805021261686089</v>
+        <v>0.6804938176950782</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>533.086236485</v>
+        <v>532.8082786489999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>28.0283032253</v>
+        <v>28.0624080285</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -619,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.016150133392</v>
+        <v>5.53638950717e-05</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -627,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>171.934662575</v>
+        <v>171.831087874</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -635,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>20.8375089279</v>
+        <v>21.0028877056</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -643,7 +643,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>287866.5677019</v>
+        <v>287716.47047046</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -651,7 +651,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>5605.66064506</v>
+        <v>5612.4816057</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -659,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>19.3801600704</v>
+        <v>0.06643667408604</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -667,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>343869.32515</v>
+        <v>343662.175748</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -675,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>62512.5267837</v>
+        <v>63008.66311679999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -683,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>699873.4604407303</v>
+        <v>699999.857377634</v>
       </c>
     </row>
   </sheetData>
@@ -727,22 +727,22 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C2">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D2">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E2">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F2">
-        <v>10.26666487699951</v>
+        <v>0.04125488801850326</v>
       </c>
       <c r="G2">
-        <v>8901.973929389767</v>
+        <v>8893.018399208784</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C3">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D3">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E3">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F3">
-        <v>8.713501243434349</v>
+        <v>0.04125193280751012</v>
       </c>
       <c r="G3">
-        <v>8921.29360126965</v>
+        <v>8911.786229106523</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -779,22 +779,22 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C4">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D4">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E4">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F4">
-        <v>72.62322237708076</v>
+        <v>76.47893717906528</v>
       </c>
       <c r="G4">
-        <v>11037.6794280729</v>
+        <v>11024.66356877324</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -805,22 +805,22 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C5">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D5">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E5">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F5">
-        <v>91.01999848860085</v>
+        <v>81.92750187927129</v>
       </c>
       <c r="G5">
-        <v>11035.3890742394</v>
+        <v>11024.87703796586</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C6">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D6">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E6">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F6">
-        <v>90.89915593917038</v>
+        <v>81.92750187927129</v>
       </c>
       <c r="G6">
-        <v>11035.41157114422</v>
+        <v>11024.87703796586</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -857,22 +857,22 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C7">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D7">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E7">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F7">
-        <v>92.29260687403114</v>
+        <v>81.92750187927129</v>
       </c>
       <c r="G7">
-        <v>11035.15215792765</v>
+        <v>11024.87703796586</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -883,22 +883,22 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C8">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D8">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E8">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F8">
-        <v>86.06974713480078</v>
+        <v>100.5919460951342</v>
       </c>
       <c r="G8">
-        <v>11036.31439383156</v>
+        <v>11021.40227621262</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C9">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D9">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E9">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F9">
-        <v>3766.661691524581</v>
+        <v>3717.077487800779</v>
       </c>
       <c r="G9">
-        <v>14754.89891929363</v>
+        <v>14751.75318293292</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -935,22 +935,22 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C10">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D10">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E10">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F10">
-        <v>3732.57922245498</v>
+        <v>3739.768033320368</v>
       </c>
       <c r="G10">
-        <v>14761.24443967141</v>
+        <v>14747.52888169429</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -961,22 +961,22 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C11">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D11">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E11">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F11">
-        <v>3739.642232258679</v>
+        <v>3739.768033320368</v>
       </c>
       <c r="G11">
-        <v>14759.92952075165</v>
+        <v>14747.52888169429</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -987,22 +987,22 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C12">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D12">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E12">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F12">
-        <v>3739.627197121625</v>
+        <v>3739.768033320368</v>
       </c>
       <c r="G12">
-        <v>14759.93231987801</v>
+        <v>14747.52888169429</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1013,22 +1013,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C13">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D13">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E13">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F13">
-        <v>3739.629627440963</v>
+        <v>3739.768033320368</v>
       </c>
       <c r="G13">
-        <v>14759.93186743954</v>
+        <v>14747.52888169429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1039,22 +1039,22 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C14">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D14">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E14">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F14">
-        <v>3740.026234171446</v>
+        <v>3739.768033320368</v>
       </c>
       <c r="G14">
-        <v>14759.85803017139</v>
+        <v>14747.52888169429</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1065,22 +1065,22 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C15">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D15">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E15">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F15">
-        <v>3755.748012861778</v>
+        <v>3765.578516434562</v>
       </c>
       <c r="G15">
-        <v>14756.93226478665</v>
+        <v>14742.72374135239</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1091,22 +1091,22 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C16">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D16">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E16">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F16">
-        <v>21981.41623442561</v>
+        <v>21976.74275005401</v>
       </c>
       <c r="G16">
-        <v>14041.06698898695</v>
+        <v>14029.6055309928</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1117,22 +1117,22 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C17">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D17">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E17">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F17">
-        <v>22015.05464370237</v>
+        <v>22011.83316269384</v>
       </c>
       <c r="G17">
-        <v>14045.13175366127</v>
+        <v>14033.38187692725</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C18">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D18">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E18">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F18">
-        <v>22015.3401029741</v>
+        <v>22011.83316269384</v>
       </c>
       <c r="G18">
-        <v>14045.18489499017</v>
+        <v>14033.38187692725</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1169,22 +1169,22 @@
         <v>42</v>
       </c>
       <c r="B19">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C19">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D19">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E19">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F19">
-        <v>22015.31552407677</v>
+        <v>22011.83316269384</v>
       </c>
       <c r="G19">
-        <v>14045.1803190899</v>
+        <v>14033.38187692725</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1195,22 +1195,22 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C20">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D20">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E20">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F20">
-        <v>22015.94663418807</v>
+        <v>22011.83316269408</v>
       </c>
       <c r="G20">
-        <v>14045.29781027312</v>
+        <v>14033.38187692725</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1221,22 +1221,22 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <v>5757.331354038</v>
+        <v>5754.329409409201</v>
       </c>
       <c r="C21">
-        <v>569.2871365376801</v>
+        <v>561.2780570733387</v>
       </c>
       <c r="D21">
-        <v>8127.637038674</v>
+        <v>8133.416777295999</v>
       </c>
       <c r="E21">
-        <v>14454.25552924968</v>
+        <v>14449.02424377854</v>
       </c>
       <c r="F21">
-        <v>22003.46475807035</v>
+        <v>22000.49476444961</v>
       </c>
       <c r="G21">
-        <v>14043.04247608964</v>
+        <v>14031.27100656734</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1274,16 +1274,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0.006149356996374144</v>
+        <v>5.633228088194637e-05</v>
       </c>
       <c r="C2">
-        <v>0.02436318937933031</v>
+        <v>5.969367661581906e-05</v>
       </c>
       <c r="D2">
-        <v>106.0371181402666</v>
+        <v>106.0452606407318</v>
       </c>
       <c r="E2">
-        <v>55.23760786637101</v>
+        <v>55.23491783702503</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1291,16 +1291,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0.004590476351806553</v>
+        <v>5.632828836249129e-05</v>
       </c>
       <c r="C3">
-        <v>0.02143693627413258</v>
+        <v>5.968934895265128e-05</v>
       </c>
       <c r="D3">
-        <v>106.26722311305</v>
+        <v>106.3036448558265</v>
       </c>
       <c r="E3">
-        <v>55.14154327188311</v>
+        <v>55.12584575131432</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1308,16 +1308,16 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>0.1310368413605871</v>
+        <v>0.1540634758446386</v>
       </c>
       <c r="C4">
-        <v>0.01848223917845942</v>
+        <v>4.822266525112051e-05</v>
       </c>
       <c r="D4">
-        <v>105.9224020357453</v>
+        <v>105.9368695933263</v>
       </c>
       <c r="E4">
-        <v>43.09770419000218</v>
+        <v>43.08082674833905</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1325,16 +1325,16 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>0.1680828095592418</v>
+        <v>0.165042130587793</v>
       </c>
       <c r="C5">
-        <v>0.01851018965716523</v>
+        <v>4.832436640052904e-05</v>
       </c>
       <c r="D5">
-        <v>105.9347456369335</v>
+        <v>105.9501588963825</v>
       </c>
       <c r="E5">
-        <v>43.0825140802494</v>
+        <v>43.07115987036232</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1342,16 +1342,16 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>0.1678393097182145</v>
+        <v>0.165042130587793</v>
       </c>
       <c r="C6">
-        <v>0.01851019538659774</v>
+        <v>4.832436640052904e-05</v>
       </c>
       <c r="D6">
-        <v>105.9347456381713</v>
+        <v>105.9501588963825</v>
       </c>
       <c r="E6">
-        <v>43.08257034390343</v>
+        <v>43.07115987036232</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1359,16 +1359,16 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>0.1706469812070397</v>
+        <v>0.165042130587793</v>
       </c>
       <c r="C7">
-        <v>0.01851031828857077</v>
+        <v>4.832436640052904e-05</v>
       </c>
       <c r="D7">
-        <v>105.9347456798529</v>
+        <v>105.9501588963825</v>
       </c>
       <c r="E7">
-        <v>43.08192153188168</v>
+        <v>43.07115987036232</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1376,16 +1376,16 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>0.1580776571893881</v>
+        <v>0.2026505834167316</v>
       </c>
       <c r="C8">
-        <v>0.01854704447014374</v>
+        <v>4.831806941566382e-05</v>
       </c>
       <c r="D8">
-        <v>105.9347620864378</v>
+        <v>105.9501588934641</v>
       </c>
       <c r="E8">
-        <v>43.08480875732312</v>
+        <v>43.06247149041093</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1393,16 +1393,16 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>5.156537758480843</v>
+        <v>5.107667908166076</v>
       </c>
       <c r="C9">
-        <v>0.02334000382108572</v>
+        <v>6.415729257910358e-05</v>
       </c>
       <c r="D9">
-        <v>100.4404385496902</v>
+        <v>100.4395554794899</v>
       </c>
       <c r="E9">
-        <v>20.10651668097542</v>
+        <v>20.10728594638768</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1410,16 +1410,16 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>5.109701348608501</v>
+        <v>5.13884750610644</v>
       </c>
       <c r="C10">
-        <v>0.02334352120887271</v>
+        <v>6.415550227133429e-05</v>
       </c>
       <c r="D10">
-        <v>100.4404306440267</v>
+        <v>100.4395554757131</v>
       </c>
       <c r="E10">
-        <v>20.11364800307939</v>
+        <v>20.10254154646164</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1427,16 +1427,16 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>5.119406772722357</v>
+        <v>5.13884750610644</v>
       </c>
       <c r="C11">
-        <v>0.0233435439888775</v>
+        <v>6.415550227133429e-05</v>
       </c>
       <c r="D11">
-        <v>100.4404306355573</v>
+        <v>100.4395554757131</v>
       </c>
       <c r="E11">
-        <v>20.11217096947526</v>
+        <v>20.10254154646164</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1444,16 +1444,16 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>5.119386113538319</v>
+        <v>5.13884750610644</v>
       </c>
       <c r="C12">
-        <v>0.02334354285202083</v>
+        <v>6.415550227133429e-05</v>
       </c>
       <c r="D12">
-        <v>100.4404306347396</v>
+        <v>100.4395554757131</v>
       </c>
       <c r="E12">
-        <v>20.11217411408981</v>
+        <v>20.10254154646164</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1461,16 +1461,16 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>5.11938945317551</v>
+        <v>5.13884750610644</v>
       </c>
       <c r="C13">
-        <v>0.02334354275544633</v>
+        <v>6.415550227133429e-05</v>
       </c>
       <c r="D13">
-        <v>100.4404306346396</v>
+        <v>100.4395554757131</v>
       </c>
       <c r="E13">
-        <v>20.11217360596892</v>
+        <v>20.10254154646164</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1478,16 +1478,16 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>5.119934441563851</v>
+        <v>5.13884750610644</v>
       </c>
       <c r="C14">
-        <v>0.02334354030485455</v>
+        <v>6.415550227133429e-05</v>
       </c>
       <c r="D14">
-        <v>100.4404306329202</v>
+        <v>100.4395554757131</v>
       </c>
       <c r="E14">
-        <v>20.11209067406496</v>
+        <v>20.10254154646164</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1495,16 +1495,16 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>5.141536360845534</v>
+        <v>5.174314281794326</v>
       </c>
       <c r="C15">
-        <v>0.02334563728929531</v>
+        <v>6.415335760299953e-05</v>
       </c>
       <c r="D15">
-        <v>100.4404212188214</v>
+        <v>100.4395554741389</v>
       </c>
       <c r="E15">
-        <v>20.10881075678516</v>
+        <v>20.09714751321988</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1512,16 +1512,16 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>22.1339819558098</v>
+        <v>22.14823420263563</v>
       </c>
       <c r="C16">
-        <v>0.0229770276501979</v>
+        <v>6.693151502430933e-05</v>
       </c>
       <c r="D16">
-        <v>81.70533706558732</v>
+        <v>81.70955748336661</v>
       </c>
       <c r="E16">
-        <v>9.933065620749911</v>
+        <v>9.919843905827786</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1529,16 +1529,16 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>22.16785422371817</v>
+        <v>22.18359837544556</v>
       </c>
       <c r="C17">
-        <v>0.02301172379000663</v>
+        <v>6.711254800830729e-05</v>
       </c>
       <c r="D17">
-        <v>81.70534778390657</v>
+        <v>81.70955753668488</v>
       </c>
       <c r="E17">
-        <v>9.930136536273798</v>
+        <v>9.916802084210302</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1546,16 +1546,16 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>22.16814191306015</v>
+        <v>22.18359837544556</v>
       </c>
       <c r="C18">
-        <v>0.02301172158868695</v>
+        <v>6.711254800830729e-05</v>
       </c>
       <c r="D18">
-        <v>81.70534777355519</v>
+        <v>81.70955753668488</v>
       </c>
       <c r="E18">
-        <v>9.93011177933306</v>
+        <v>9.916802084210302</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1563,16 +1563,16 @@
         <v>42</v>
       </c>
       <c r="B19">
-        <v>22.1681171419177</v>
+        <v>22.18359837544556</v>
       </c>
       <c r="C19">
-        <v>0.02301172205523605</v>
+        <v>6.711254800830729e-05</v>
       </c>
       <c r="D19">
-        <v>81.70534777424575</v>
+        <v>81.70955753668488</v>
       </c>
       <c r="E19">
-        <v>9.930113911144788</v>
+        <v>9.916802084210302</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1580,16 +1580,16 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>22.16875332052011</v>
+        <v>22.18359837544581</v>
       </c>
       <c r="C20">
-        <v>0.02301155031108055</v>
+        <v>6.711254800830851e-05</v>
       </c>
       <c r="D20">
-        <v>81.70534761631041</v>
+        <v>81.70955753668488</v>
       </c>
       <c r="E20">
-        <v>9.930059297014294</v>
+        <v>9.916802084210282</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1597,16 +1597,16 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <v>22.15501801105849</v>
+        <v>22.17217147041952</v>
       </c>
       <c r="C21">
-        <v>0.02440822884000263</v>
+        <v>6.711388217510287e-05</v>
       </c>
       <c r="D21">
-        <v>81.70554154032622</v>
+        <v>81.70955753701425</v>
       </c>
       <c r="E21">
-        <v>9.930953449960974</v>
+        <v>9.917784736101492</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>881252.825989</v>
+        <v>868893.9378517992</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>181252.968612</v>
+        <v>168907.9609663472</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>707961.514072</v>
+        <v>644986.0717986557</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>699999.857377</v>
+        <v>699985.9768854518</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -577,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6804938176950782</v>
+        <v>0.7022028404861294</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>532.8082786489999</v>
+        <v>390.6223182307027</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>28.0624080285</v>
+        <v>16.17465262790182</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -619,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5.53638950717e-05</v>
+        <v>14.31526359294155</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -627,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>171.831087874</v>
+        <v>132.947328740405</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -635,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>21.0028877056</v>
+        <v>67.58067357431737</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -643,7 +643,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>287716.47047046</v>
+        <v>210936.0518445795</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -651,7 +651,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>5612.4816057</v>
+        <v>3234.930525580365</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -659,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06643667408604</v>
+        <v>17178.31631152986</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -667,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>343662.175748</v>
+        <v>265894.65748081</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -675,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>63008.66311679999</v>
+        <v>202742.0207229521</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -683,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>699999.857377634</v>
+        <v>699985.9768854519</v>
       </c>
     </row>
   </sheetData>
@@ -727,22 +727,22 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C2">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D2">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E2">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F2">
-        <v>0.04125488801850326</v>
+        <v>91.23850923168642</v>
       </c>
       <c r="G2">
-        <v>8893.018399208784</v>
+        <v>7057.080611534035</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C3">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D3">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E3">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F3">
-        <v>0.04125193280751012</v>
+        <v>97.52858373296304</v>
       </c>
       <c r="G3">
-        <v>8911.786229106523</v>
+        <v>7067.693194989436</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -779,22 +779,22 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C4">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D4">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E4">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F4">
-        <v>76.47893717906528</v>
+        <v>940.1512990708984</v>
       </c>
       <c r="G4">
-        <v>11024.66356877324</v>
+        <v>8796.192580671936</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -805,22 +805,22 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C5">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D5">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E5">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F5">
-        <v>81.92750187927129</v>
+        <v>947.1937116064173</v>
       </c>
       <c r="G5">
-        <v>11024.87703796586</v>
+        <v>8794.608534898824</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C6">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D6">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E6">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F6">
-        <v>81.92750187927129</v>
+        <v>947.1937116064173</v>
       </c>
       <c r="G6">
-        <v>11024.87703796586</v>
+        <v>8794.608534898824</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -857,22 +857,22 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C7">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D7">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E7">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F7">
-        <v>81.92750187927129</v>
+        <v>947.1937116064173</v>
       </c>
       <c r="G7">
-        <v>11024.87703796586</v>
+        <v>8794.608534898824</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -883,22 +883,22 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C8">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D8">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E8">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F8">
-        <v>100.5919460951342</v>
+        <v>959.0666386513337</v>
       </c>
       <c r="G8">
-        <v>11021.40227621262</v>
+        <v>8791.937956663725</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C9">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D9">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E9">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F9">
-        <v>3717.077487800779</v>
+        <v>6425.958453672734</v>
       </c>
       <c r="G9">
-        <v>14751.75318293292</v>
+        <v>10314.78121875553</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -935,22 +935,22 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C10">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D10">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E10">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F10">
-        <v>3739.768033320368</v>
+        <v>6447.985029101076</v>
       </c>
       <c r="G10">
-        <v>14747.52888169429</v>
+        <v>10310.52903079825</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -961,22 +961,22 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C11">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D11">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E11">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F11">
-        <v>3739.768033320368</v>
+        <v>6447.985029101076</v>
       </c>
       <c r="G11">
-        <v>14747.52888169429</v>
+        <v>10310.52903079825</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -987,22 +987,22 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C12">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D12">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E12">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F12">
-        <v>3739.768033320368</v>
+        <v>6447.985029101076</v>
       </c>
       <c r="G12">
-        <v>14747.52888169429</v>
+        <v>10310.52903079825</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1013,22 +1013,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C13">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D13">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E13">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F13">
-        <v>3739.768033320368</v>
+        <v>6447.985029101076</v>
       </c>
       <c r="G13">
-        <v>14747.52888169429</v>
+        <v>10310.52903079825</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1039,22 +1039,22 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C14">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D14">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E14">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F14">
-        <v>3739.768033320368</v>
+        <v>6447.985029101076</v>
       </c>
       <c r="G14">
-        <v>14747.52888169429</v>
+        <v>10310.52903079825</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1065,22 +1065,22 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C15">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D15">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E15">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F15">
-        <v>3765.578516434562</v>
+        <v>6470.992067522263</v>
       </c>
       <c r="G15">
-        <v>14742.72374135239</v>
+        <v>10311.25871653671</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1091,22 +1091,22 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C16">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D16">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E16">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F16">
-        <v>21976.74275005401</v>
+        <v>18700.74935121347</v>
       </c>
       <c r="G16">
-        <v>14029.6055309928</v>
+        <v>10352.16388659161</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1117,22 +1117,22 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C17">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D17">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E17">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F17">
-        <v>22011.83316269384</v>
+        <v>18723.16216955642</v>
       </c>
       <c r="G17">
-        <v>14033.38187692725</v>
+        <v>10355.63490156641</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C18">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D18">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E18">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F18">
-        <v>22011.83316269384</v>
+        <v>18723.16216955642</v>
       </c>
       <c r="G18">
-        <v>14033.38187692725</v>
+        <v>10355.63490156642</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1169,22 +1169,22 @@
         <v>42</v>
       </c>
       <c r="B19">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C19">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D19">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E19">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F19">
-        <v>22011.83316269384</v>
+        <v>18723.16216955642</v>
       </c>
       <c r="G19">
-        <v>14033.38187692725</v>
+        <v>10355.63490156642</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1195,22 +1195,22 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C20">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D20">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E20">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F20">
-        <v>22011.83316269408</v>
+        <v>18723.16216955642</v>
       </c>
       <c r="G20">
-        <v>14033.38187692725</v>
+        <v>10355.63490156642</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1221,22 +1221,22 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <v>5754.329409409201</v>
+        <v>4218.721036891589</v>
       </c>
       <c r="C21">
-        <v>561.2780570733387</v>
+        <v>918.5961076699599</v>
       </c>
       <c r="D21">
-        <v>8133.416777295999</v>
+        <v>9372.733564075243</v>
       </c>
       <c r="E21">
-        <v>14449.02424377854</v>
+        <v>14510.05070863679</v>
       </c>
       <c r="F21">
-        <v>22000.49476444961</v>
+        <v>18719.29289793598</v>
       </c>
       <c r="G21">
-        <v>14031.27100656734</v>
+        <v>10355.80633564183</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1274,16 +1274,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>5.633228088194637e-05</v>
+        <v>0.0004868701846528375</v>
       </c>
       <c r="C2">
-        <v>5.969367661581906e-05</v>
+        <v>0.2863733040514733</v>
       </c>
       <c r="D2">
-        <v>106.0452606407318</v>
+        <v>104.5321064451999</v>
       </c>
       <c r="E2">
-        <v>55.23491783702503</v>
+        <v>49.29911567021956</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1291,16 +1291,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5.632828836249129e-05</v>
+        <v>0.000488466312477982</v>
       </c>
       <c r="C3">
-        <v>5.968934895265128e-05</v>
+        <v>0.3046219931529824</v>
       </c>
       <c r="D3">
-        <v>106.3036448558265</v>
+        <v>104.6979621174013</v>
       </c>
       <c r="E3">
-        <v>55.12584575131432</v>
+        <v>49.21424386163989</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1308,16 +1308,16 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>0.1540634758446386</v>
+        <v>0.000534505864575503</v>
       </c>
       <c r="C4">
-        <v>4.822266525112051e-05</v>
+        <v>2.361042824095447</v>
       </c>
       <c r="D4">
-        <v>105.9368695933263</v>
+        <v>102.5897180884135</v>
       </c>
       <c r="E4">
-        <v>43.08082674833905</v>
+        <v>36.5957921177933</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1325,16 +1325,16 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>0.165042130587793</v>
+        <v>0.000534518285613415</v>
       </c>
       <c r="C5">
-        <v>4.832436640052904e-05</v>
+        <v>2.37783397444314</v>
       </c>
       <c r="D5">
-        <v>105.9501588963825</v>
+        <v>102.5897181130501</v>
       </c>
       <c r="E5">
-        <v>43.07115987036232</v>
+        <v>36.59197435657134</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1342,16 +1342,16 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>0.165042130587793</v>
+        <v>0.000534518285613415</v>
       </c>
       <c r="C6">
-        <v>4.832436640052904e-05</v>
+        <v>2.37783397444314</v>
       </c>
       <c r="D6">
-        <v>105.9501588963825</v>
+        <v>102.5897181130501</v>
       </c>
       <c r="E6">
-        <v>43.07115987036232</v>
+        <v>36.59197435657134</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1359,16 +1359,16 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>0.165042130587793</v>
+        <v>0.000534518285613415</v>
       </c>
       <c r="C7">
-        <v>4.832436640052904e-05</v>
+        <v>2.37783397444314</v>
       </c>
       <c r="D7">
-        <v>105.9501588963825</v>
+        <v>102.5897181130501</v>
       </c>
       <c r="E7">
-        <v>43.07115987036232</v>
+        <v>36.59197435657134</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1376,16 +1376,16 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>0.2026505834167316</v>
+        <v>0.0005346075212718519</v>
       </c>
       <c r="C8">
-        <v>4.831806941566382e-05</v>
+        <v>2.421594106015336</v>
       </c>
       <c r="D8">
-        <v>105.9501588934641</v>
+        <v>102.5897181149977</v>
       </c>
       <c r="E8">
-        <v>43.06247149041093</v>
+        <v>36.5855397548702</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1393,16 +1393,16 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>5.107667908166076</v>
+        <v>1.726067615527449</v>
       </c>
       <c r="C9">
-        <v>6.415729257910358e-05</v>
+        <v>13.34748008251303</v>
       </c>
       <c r="D9">
-        <v>100.4395554794899</v>
+        <v>92.8624402000995</v>
       </c>
       <c r="E9">
-        <v>20.10728594638768</v>
+        <v>20.44312468043964</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1410,16 +1410,16 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>5.13884750610644</v>
+        <v>1.767812524922383</v>
       </c>
       <c r="C10">
-        <v>6.415550227133429e-05</v>
+        <v>13.34976850718622</v>
       </c>
       <c r="D10">
-        <v>100.4395554757131</v>
+        <v>92.86244038312901</v>
       </c>
       <c r="E10">
-        <v>20.10254154646164</v>
+        <v>20.43782163175367</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1427,16 +1427,16 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>5.13884750610644</v>
+        <v>1.767812524922383</v>
       </c>
       <c r="C11">
-        <v>6.415550227133429e-05</v>
+        <v>13.34976850718622</v>
       </c>
       <c r="D11">
-        <v>100.4395554757131</v>
+        <v>92.86244038312901</v>
       </c>
       <c r="E11">
-        <v>20.10254154646164</v>
+        <v>20.43782163175367</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1444,16 +1444,16 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>5.13884750610644</v>
+        <v>1.767812524922383</v>
       </c>
       <c r="C12">
-        <v>6.415550227133429e-05</v>
+        <v>13.34976850718622</v>
       </c>
       <c r="D12">
-        <v>100.4395554757131</v>
+        <v>92.86244038312901</v>
       </c>
       <c r="E12">
-        <v>20.10254154646164</v>
+        <v>20.43782163175367</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1461,16 +1461,16 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>5.13884750610644</v>
+        <v>1.767812524922383</v>
       </c>
       <c r="C13">
-        <v>6.415550227133429e-05</v>
+        <v>13.34976850718622</v>
       </c>
       <c r="D13">
-        <v>100.4395554757131</v>
+        <v>92.86244038312901</v>
       </c>
       <c r="E13">
-        <v>20.10254154646164</v>
+        <v>20.43782163175367</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1478,16 +1478,16 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>5.13884750610644</v>
+        <v>1.767812524922383</v>
       </c>
       <c r="C14">
-        <v>6.415550227133429e-05</v>
+        <v>13.34976850718622</v>
       </c>
       <c r="D14">
-        <v>100.4395554757131</v>
+        <v>92.86244038312901</v>
       </c>
       <c r="E14">
-        <v>20.10254154646164</v>
+        <v>20.43782163175367</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1495,16 +1495,16 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>5.174314281794326</v>
+        <v>1.780470260286635</v>
       </c>
       <c r="C15">
-        <v>6.415335760299953e-05</v>
+        <v>13.38521269392708</v>
       </c>
       <c r="D15">
-        <v>100.4395554741389</v>
+        <v>92.86244080389842</v>
       </c>
       <c r="E15">
-        <v>20.09714751321988</v>
+        <v>20.43189365663921</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1512,16 +1512,16 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>22.14823420263563</v>
+        <v>8.934015584100626</v>
       </c>
       <c r="C16">
-        <v>6.693151502430933e-05</v>
+        <v>24.43719180242438</v>
       </c>
       <c r="D16">
-        <v>81.70955748336661</v>
+        <v>78.6373745642053</v>
       </c>
       <c r="E16">
-        <v>9.919843905827786</v>
+        <v>11.30334484439881</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1529,16 +1529,16 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>22.18359837544556</v>
+        <v>8.942505038082176</v>
       </c>
       <c r="C17">
-        <v>6.711254800830729e-05</v>
+        <v>24.46659237973616</v>
       </c>
       <c r="D17">
-        <v>81.70955753668488</v>
+        <v>78.63737457830567</v>
       </c>
       <c r="E17">
-        <v>9.916802084210302</v>
+        <v>11.30052739746754</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1546,16 +1546,16 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>22.18359837544556</v>
+        <v>8.942505038082176</v>
       </c>
       <c r="C18">
-        <v>6.711254800830729e-05</v>
+        <v>24.46659237973616</v>
       </c>
       <c r="D18">
-        <v>81.70955753668488</v>
+        <v>78.63737457830567</v>
       </c>
       <c r="E18">
-        <v>9.916802084210302</v>
+        <v>11.30052739746754</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1563,16 +1563,16 @@
         <v>42</v>
       </c>
       <c r="B19">
-        <v>22.18359837544556</v>
+        <v>8.942505038082176</v>
       </c>
       <c r="C19">
-        <v>6.711254800830729e-05</v>
+        <v>24.46659237973616</v>
       </c>
       <c r="D19">
-        <v>81.70955753668488</v>
+        <v>78.63737457830568</v>
       </c>
       <c r="E19">
-        <v>9.916802084210302</v>
+        <v>11.30052739746754</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1580,16 +1580,16 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>22.18359837544581</v>
+        <v>8.942505038082176</v>
       </c>
       <c r="C20">
-        <v>6.711254800830851e-05</v>
+        <v>24.46659237973616</v>
       </c>
       <c r="D20">
-        <v>81.70955753668488</v>
+        <v>78.63737457830568</v>
       </c>
       <c r="E20">
-        <v>9.916802084210282</v>
+        <v>11.30052739746754</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1597,16 +1597,16 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <v>22.17217147041952</v>
+        <v>8.93904785953695</v>
       </c>
       <c r="C21">
-        <v>6.711388217510287e-05</v>
+        <v>24.46659210984945</v>
       </c>
       <c r="D21">
-        <v>81.70955753701425</v>
+        <v>78.63737457307758</v>
       </c>
       <c r="E21">
-        <v>9.917784736101492</v>
+        <v>11.30095616753199</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>NPC [USD]</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Total actualized Investment cost [USD]</t>
   </si>
   <si>
-    <t>Salvage Value at year 20 [USD]</t>
+    <t>Salvage Value at year 5 [USD]</t>
   </si>
   <si>
     <t>LCOE [USD/kWh</t>
@@ -107,51 +107,6 @@
   </si>
   <si>
     <t>Year 5</t>
-  </si>
-  <si>
-    <t>Year 6</t>
-  </si>
-  <si>
-    <t>Year 7</t>
-  </si>
-  <si>
-    <t>Year 8</t>
-  </si>
-  <si>
-    <t>Year 9</t>
-  </si>
-  <si>
-    <t>Year 10</t>
-  </si>
-  <si>
-    <t>Year 11</t>
-  </si>
-  <si>
-    <t>Year 12</t>
-  </si>
-  <si>
-    <t>Year 13</t>
-  </si>
-  <si>
-    <t>Year 14</t>
-  </si>
-  <si>
-    <t>Year 15</t>
-  </si>
-  <si>
-    <t>Year 16</t>
-  </si>
-  <si>
-    <t>Year 17</t>
-  </si>
-  <si>
-    <t>Year 18</t>
-  </si>
-  <si>
-    <t>Year 19</t>
-  </si>
-  <si>
-    <t>Year 20</t>
   </si>
   <si>
     <t>Load served by Generator 1 %</t>
@@ -537,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>743324.9364167168</v>
+        <v>557746.233577</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>143326.2723811271</v>
+        <v>83094.3514874</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>570830.6283141725</v>
+        <v>132431.506901</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>599998.6640355897</v>
+        <v>600000.464733</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>125348.582643</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6524545331303994</v>
+        <v>0.7864286983915819</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>503.8729332211489</v>
+        <v>477.169308357</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -611,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>29.02624624487911</v>
+        <v>17.6317664776</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -619,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1413556439934539</v>
+        <v>21.0968120616</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -627,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>160.9981228121069</v>
+        <v>163.680235902</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -635,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.001384030008732996</v>
+        <v>6.913746076069999e-07</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -643,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>272091.3839394205</v>
+        <v>257671.42651278</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -651,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>5805.249248975822</v>
+        <v>3526.35329552</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -659,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>35.33891099836347</v>
+        <v>5274.2030154</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -667,7 +622,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>321996.2456242138</v>
+        <v>327360.471804</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -675,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>4.152090026198989</v>
+        <v>0.002074123822820999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -683,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>599932.3698136347</v>
+        <v>593832.4567018237</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +648,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -727,22 +682,22 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>5441.827678788409</v>
+        <v>5153.428530255601</v>
       </c>
       <c r="C2">
-        <v>262.8264671988384</v>
+        <v>396.0250339914</v>
       </c>
       <c r="D2">
-        <v>6440.0079542848</v>
+        <v>6547.209477562476</v>
       </c>
       <c r="E2">
-        <v>12144.66210027205</v>
+        <v>12096.66304180948</v>
       </c>
       <c r="F2">
-        <v>8.405275066662256</v>
+        <v>9.729350451316355</v>
       </c>
       <c r="G2">
-        <v>5888.465611581316</v>
+        <v>5854.494437752485</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -753,22 +708,22 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5441.827678788409</v>
+        <v>5153.428530255601</v>
       </c>
       <c r="C3">
-        <v>262.8264671988384</v>
+        <v>396.0250339914</v>
       </c>
       <c r="D3">
-        <v>6440.0079542848</v>
+        <v>6547.209477562476</v>
       </c>
       <c r="E3">
-        <v>12144.66210027205</v>
+        <v>12096.66304180948</v>
       </c>
       <c r="F3">
-        <v>9.697410570882687</v>
+        <v>317.5917107882166</v>
       </c>
       <c r="G3">
-        <v>5898.766991827721</v>
+        <v>7089.738675278481</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -779,22 +734,22 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>5441.827678788409</v>
+        <v>5153.428530255601</v>
       </c>
       <c r="C4">
-        <v>262.8264671988384</v>
+        <v>396.0250339914</v>
       </c>
       <c r="D4">
-        <v>6440.0079542848</v>
+        <v>6547.209477562476</v>
       </c>
       <c r="E4">
-        <v>12144.66210027205</v>
+        <v>12096.66304180948</v>
       </c>
       <c r="F4">
-        <v>358.6600954591015</v>
+        <v>347.7681426409127</v>
       </c>
       <c r="G4">
-        <v>7113.034557248795</v>
+        <v>7085.670744416706</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -805,22 +760,22 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>5441.827678788409</v>
+        <v>5153.428530255601</v>
       </c>
       <c r="C5">
-        <v>262.8264671988384</v>
+        <v>396.0250339914</v>
       </c>
       <c r="D5">
-        <v>6440.0079542848</v>
+        <v>6547.209477562476</v>
       </c>
       <c r="E5">
-        <v>12144.66210027205</v>
+        <v>12096.66304180948</v>
       </c>
       <c r="F5">
-        <v>369.5052030891646</v>
+        <v>8761.081323434903</v>
       </c>
       <c r="G5">
-        <v>7111.825597351082</v>
+        <v>7854.81718572731</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -831,414 +786,24 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>5441.827678788409</v>
+        <v>5153.428530255601</v>
       </c>
       <c r="C6">
-        <v>262.8264671988384</v>
+        <v>396.0250339914</v>
       </c>
       <c r="D6">
-        <v>6440.0079542848</v>
+        <v>6547.209477562476</v>
       </c>
       <c r="E6">
-        <v>12144.66210027205</v>
+        <v>12096.66304180948</v>
       </c>
       <c r="F6">
-        <v>369.5052032768243</v>
+        <v>26059.74020092283</v>
       </c>
       <c r="G6">
-        <v>7111.825597334599</v>
+        <v>7179.766543521087</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C7">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D7">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E7">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F7">
-        <v>369.5052032753209</v>
-      </c>
-      <c r="G7">
-        <v>7111.825597335132</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C8">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D8">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E8">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F8">
-        <v>382.8169011282733</v>
-      </c>
-      <c r="G8">
-        <v>7110.340468888005</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C9">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D9">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E9">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F9">
-        <v>6665.17735852572</v>
-      </c>
-      <c r="G9">
-        <v>8101.820219010959</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C10">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D10">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E10">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F10">
-        <v>6682.226667536306</v>
-      </c>
-      <c r="G10">
-        <v>8099.918112202804</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C11">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D11">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E11">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F11">
-        <v>6682.226667627399</v>
-      </c>
-      <c r="G11">
-        <v>8099.91811222552</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C12">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D12">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E12">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F12">
-        <v>6682.226667627372</v>
-      </c>
-      <c r="G12">
-        <v>8099.918112225512</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C13">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D13">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E13">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F13">
-        <v>6682.226667627359</v>
-      </c>
-      <c r="G13">
-        <v>8099.918112225494</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C14">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D14">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E14">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F14">
-        <v>6682.226667611292</v>
-      </c>
-      <c r="G14">
-        <v>8099.918112225091</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C15">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D15">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E15">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F15">
-        <v>6706.589218388139</v>
-      </c>
-      <c r="G15">
-        <v>8097.199954131387</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C16">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D16">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E16">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F16">
-        <v>21345.92455738091</v>
-      </c>
-      <c r="G16">
-        <v>7825.42413666416</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C17">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D17">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E17">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F17">
-        <v>21376.97216639517</v>
-      </c>
-      <c r="G17">
-        <v>7827.920109339831</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C18">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D18">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E18">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F18">
-        <v>21376.97216644241</v>
-      </c>
-      <c r="G18">
-        <v>7827.920109353268</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C19">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D19">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E19">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F19">
-        <v>21376.97216644348</v>
-      </c>
-      <c r="G19">
-        <v>7827.920109353482</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C20">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D20">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E20">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F20">
-        <v>21376.9721682944</v>
-      </c>
-      <c r="G20">
-        <v>7827.920109856813</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <v>5441.827678788409</v>
-      </c>
-      <c r="C21">
-        <v>262.8264671988384</v>
-      </c>
-      <c r="D21">
-        <v>6440.0079542848</v>
-      </c>
-      <c r="E21">
-        <v>12144.66210027205</v>
-      </c>
-      <c r="F21">
-        <v>21363.37636142167</v>
-      </c>
-      <c r="G21">
-        <v>7827.736985403246</v>
-      </c>
-      <c r="H21">
         <v>0</v>
       </c>
     </row>
@@ -1249,7 +814,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1257,16 +822,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1274,16 +839,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0.01946587793411588</v>
+        <v>0.0002885279144599186</v>
       </c>
       <c r="C2">
-        <v>0.003971875291588088</v>
+        <v>0.02978032426636869</v>
       </c>
       <c r="D2">
-        <v>106.7315238637749</v>
+        <v>106.6658978568775</v>
       </c>
       <c r="E2">
-        <v>46.60405520541148</v>
+        <v>47.37346363149109</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1291,16 +856,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0.0194662539588366</v>
+        <v>0.0002755363516945485</v>
       </c>
       <c r="C3">
-        <v>0.003707042300962696</v>
+        <v>0.7728414257797922</v>
       </c>
       <c r="D3">
-        <v>106.9712270971809</v>
+        <v>105.7724087419434</v>
       </c>
       <c r="E3">
-        <v>46.48422361707316</v>
+        <v>33.46562024603612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1308,16 +873,16 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>0.640377247330764</v>
+        <v>0.0002746430080898797</v>
       </c>
       <c r="C4">
-        <v>0.02749592363008549</v>
+        <v>0.8463067726943614</v>
       </c>
       <c r="D4">
-        <v>105.9855138076808</v>
+        <v>105.7724086957697</v>
       </c>
       <c r="E4">
-        <v>33.23160342374216</v>
+        <v>33.45027453488888</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1325,16 +890,16 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>0.6598644462065176</v>
+        <v>0.2541947677211616</v>
       </c>
       <c r="C5">
-        <v>0.02779746703742964</v>
+        <v>14.23813239544812</v>
       </c>
       <c r="D5">
-        <v>105.9856222143429</v>
+        <v>90.45817980216204</v>
       </c>
       <c r="E5">
-        <v>33.22741921907463</v>
+        <v>14.7925296156956</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1342,271 +907,16 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>0.6598644464332157</v>
+        <v>6.768021605261964</v>
       </c>
       <c r="C6">
-        <v>0.0277974672677154</v>
+        <v>23.55397477716658</v>
       </c>
       <c r="D6">
-        <v>105.985622214073</v>
+        <v>72.95580821483115</v>
       </c>
       <c r="E6">
-        <v>33.22741921914853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>0.6598644464336014</v>
-      </c>
-      <c r="C7">
-        <v>0.02779746726546473</v>
-      </c>
-      <c r="D7">
-        <v>105.9856222140753</v>
-      </c>
-      <c r="E7">
-        <v>33.22741921914752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>0.6707903128499932</v>
-      </c>
-      <c r="C8">
-        <v>0.02779470910520362</v>
-      </c>
-      <c r="D8">
-        <v>105.9856222468925</v>
-      </c>
-      <c r="E8">
-        <v>33.22514747415944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>2.719471367393534</v>
-      </c>
-      <c r="C9">
-        <v>0.04703371826612782</v>
-      </c>
-      <c r="D9">
-        <v>103.6354105127613</v>
-      </c>
-      <c r="E9">
-        <v>23.10487427511477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>2.726382288821294</v>
-      </c>
-      <c r="C10">
-        <v>0.04703316794054314</v>
-      </c>
-      <c r="D10">
-        <v>103.635410685615</v>
-      </c>
-      <c r="E10">
-        <v>23.10372034456482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>2.726382289830415</v>
-      </c>
-      <c r="C11">
-        <v>0.04703316702787487</v>
-      </c>
-      <c r="D11">
-        <v>103.6354106855923</v>
-      </c>
-      <c r="E11">
-        <v>23.10372034456507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>2.72638228983007</v>
-      </c>
-      <c r="C12">
-        <v>0.04703316702826923</v>
-      </c>
-      <c r="D12">
-        <v>103.6354106855923</v>
-      </c>
-      <c r="E12">
-        <v>23.10372034456511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>2.726382289830112</v>
-      </c>
-      <c r="C13">
-        <v>0.04703316702819594</v>
-      </c>
-      <c r="D13">
-        <v>103.6354106855923</v>
-      </c>
-      <c r="E13">
-        <v>23.1037203445651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>2.726382289782113</v>
-      </c>
-      <c r="C14">
-        <v>0.0470331670766267</v>
-      </c>
-      <c r="D14">
-        <v>103.6354106855925</v>
-      </c>
-      <c r="E14">
-        <v>23.10372034456489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>2.737031149529565</v>
-      </c>
-      <c r="C15">
-        <v>0.04703466350333769</v>
-      </c>
-      <c r="D15">
-        <v>103.6354103171806</v>
-      </c>
-      <c r="E15">
-        <v>23.10194257578713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16">
-        <v>10.33464583966009</v>
-      </c>
-      <c r="C16">
-        <v>0.1700146439399036</v>
-      </c>
-      <c r="D16">
-        <v>95.12037357834625</v>
-      </c>
-      <c r="E16">
-        <v>15.5083022394223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>10.35060107890585</v>
-      </c>
-      <c r="C17">
-        <v>0.1700018215425467</v>
-      </c>
-      <c r="D17">
-        <v>95.12037356211219</v>
-      </c>
-      <c r="E17">
-        <v>15.50632478100679</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
-        <v>10.35060107885681</v>
-      </c>
-      <c r="C18">
-        <v>0.1700018217123909</v>
-      </c>
-      <c r="D18">
-        <v>95.12037356208204</v>
-      </c>
-      <c r="E18">
-        <v>15.50632478101593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19">
-        <v>10.35060107888366</v>
-      </c>
-      <c r="C19">
-        <v>0.1700018216855965</v>
-      </c>
-      <c r="D19">
-        <v>95.12037356208195</v>
-      </c>
-      <c r="E19">
-        <v>15.50632478101599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20">
-        <v>10.35060113135867</v>
-      </c>
-      <c r="C20">
-        <v>0.1700017693896167</v>
-      </c>
-      <c r="D20">
-        <v>95.12037356186094</v>
-      </c>
-      <c r="E20">
-        <v>15.50632478117055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <v>10.32478579670607</v>
-      </c>
-      <c r="C21">
-        <v>0.1701844117084298</v>
-      </c>
-      <c r="D21">
-        <v>95.12035684971659</v>
-      </c>
-      <c r="E21">
-        <v>15.50951783445488</v>
+        <v>6.135417365721148</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Results_Summary.xlsx
+++ b/MicroGrids/Results/Results_Summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>NPC [USD]</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Renewable O&amp;M Cost</t>
+  </si>
+  <si>
+    <t>Biodigester O&amp;M Cost</t>
   </si>
   <si>
     <t>Total O&amp;M Cost</t>
@@ -492,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>557746.233577</v>
+        <v>580154.753044</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -500,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>83094.3514874</v>
+        <v>93113.9803754</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -508,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>132431.506901</v>
+        <v>148508.240061</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -516,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>600000.464733</v>
+        <v>600000.111121</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -524,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>125348.582643</v>
+        <v>112959.338452</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -532,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7864286983915819</v>
+        <v>0.8180249723534793</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>477.169308357</v>
+        <v>406.638746988</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -566,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>17.6317664776</v>
+        <v>7.95641204699</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -574,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>21.0968120616</v>
+        <v>29.9732158777</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -582,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>163.680235902</v>
+        <v>146.925420661</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -590,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>6.913746076069999e-07</v>
+        <v>2.89581149031e-06</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -598,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>257671.42651278</v>
+        <v>219584.92337352</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -606,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>3526.35329552</v>
+        <v>1591.282409398</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -614,7 +617,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>5274.2030154</v>
+        <v>7493.303969425</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -622,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>327360.471804</v>
+        <v>293850.841322</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -630,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002074123822820999</v>
+        <v>0.008687434470930001</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -638,7 +641,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>593832.4567018237</v>
+        <v>522520.3597617776</v>
       </c>
     </row>
   </sheetData>
@@ -648,13 +651,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
@@ -676,134 +679,152 @@
       <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>5153.428530255601</v>
+        <v>4391.698467470401</v>
       </c>
       <c r="C2">
-        <v>396.0250339914</v>
+        <v>408.8063870470349</v>
       </c>
       <c r="D2">
-        <v>6547.209477562476</v>
+        <v>5877.01700018869</v>
       </c>
       <c r="E2">
-        <v>12096.66304180948</v>
+        <v>3486.5892000072</v>
       </c>
       <c r="F2">
-        <v>9.729350451316355</v>
+        <v>14164.11105471333</v>
       </c>
       <c r="G2">
-        <v>5854.494437752485</v>
+        <v>75.72664166297506</v>
       </c>
       <c r="H2">
+        <v>5850.092220579984</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>5153.428530255601</v>
+        <v>4391.698467470401</v>
       </c>
       <c r="C3">
-        <v>396.0250339914</v>
+        <v>408.8063870470349</v>
       </c>
       <c r="D3">
-        <v>6547.209477562476</v>
+        <v>5877.01700018869</v>
       </c>
       <c r="E3">
-        <v>12096.66304180948</v>
+        <v>3486.5892000072</v>
       </c>
       <c r="F3">
-        <v>317.5917107882166</v>
+        <v>14164.11105471333</v>
       </c>
       <c r="G3">
-        <v>7089.738675278481</v>
+        <v>960.6693361899218</v>
       </c>
       <c r="H3">
+        <v>6936.58399086376</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>5153.428530255601</v>
+        <v>4391.698467470401</v>
       </c>
       <c r="C4">
-        <v>396.0250339914</v>
+        <v>408.8063870470349</v>
       </c>
       <c r="D4">
-        <v>6547.209477562476</v>
+        <v>5877.01700018869</v>
       </c>
       <c r="E4">
-        <v>12096.66304180948</v>
+        <v>3486.5892000072</v>
       </c>
       <c r="F4">
-        <v>347.7681426409127</v>
+        <v>14164.11105471333</v>
       </c>
       <c r="G4">
-        <v>7085.670744416706</v>
+        <v>983.9071927690284</v>
       </c>
       <c r="H4">
+        <v>6933.451650374377</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>5153.428530255601</v>
+        <v>4391.698467470401</v>
       </c>
       <c r="C5">
-        <v>396.0250339914</v>
+        <v>408.8063870470349</v>
       </c>
       <c r="D5">
-        <v>6547.209477562476</v>
+        <v>5877.01700018869</v>
       </c>
       <c r="E5">
-        <v>12096.66304180948</v>
+        <v>3486.5892000072</v>
       </c>
       <c r="F5">
-        <v>8761.081323434903</v>
+        <v>14164.11105471333</v>
       </c>
       <c r="G5">
-        <v>7854.81718572731</v>
+        <v>13329.86551201737</v>
       </c>
       <c r="H5">
+        <v>6621.112361777014</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>5153.428530255601</v>
+        <v>4391.698467470401</v>
       </c>
       <c r="C6">
-        <v>396.0250339914</v>
+        <v>408.8063870470349</v>
       </c>
       <c r="D6">
-        <v>6547.209477562476</v>
+        <v>5877.01700018869</v>
       </c>
       <c r="E6">
-        <v>12096.66304180948</v>
+        <v>3486.5892000072</v>
       </c>
       <c r="F6">
-        <v>26059.74020092283</v>
+        <v>14164.11105471333</v>
       </c>
       <c r="G6">
-        <v>7179.766543521087</v>
+        <v>29948.96724055574</v>
       </c>
       <c r="H6">
+        <v>6047.308640889112</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
@@ -822,101 +843,101 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>0.0002885279144599186</v>
+        <v>0.0003660717592900819</v>
       </c>
       <c r="C2">
-        <v>0.02978032426636869</v>
+        <v>0.2340607422158436</v>
       </c>
       <c r="D2">
-        <v>106.6658978568775</v>
+        <v>106.4830380499204</v>
       </c>
       <c r="E2">
-        <v>47.37346363149109</v>
+        <v>41.42708421087878</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>0.0002755363516945485</v>
+        <v>0.0004840680156889537</v>
       </c>
       <c r="C3">
-        <v>0.7728414257797922</v>
+        <v>2.338156506860181</v>
       </c>
       <c r="D3">
-        <v>105.7724087419434</v>
+        <v>104.0765624558221</v>
       </c>
       <c r="E3">
-        <v>33.46562024603612</v>
+        <v>26.80640825805316</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>0.0002746430080898797</v>
+        <v>0.0005113701993705007</v>
       </c>
       <c r="C4">
-        <v>0.8463067726943614</v>
+        <v>2.39469588531572</v>
       </c>
       <c r="D4">
-        <v>105.7724086957697</v>
+        <v>104.0765592830033</v>
       </c>
       <c r="E4">
-        <v>33.45027453488888</v>
+        <v>26.79598487055777</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>0.2541947677211616</v>
+        <v>0.04308053126475316</v>
       </c>
       <c r="C5">
-        <v>14.23813239544812</v>
+        <v>22.07834912608757</v>
       </c>
       <c r="D5">
-        <v>90.45817980216204</v>
+        <v>82.07347285167728</v>
       </c>
       <c r="E5">
-        <v>14.7925296156956</v>
+        <v>12.93512144022593</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>6.768021605261964</v>
+        <v>1.160869903359796</v>
       </c>
       <c r="C6">
-        <v>23.55397477716658</v>
+        <v>35.06415481030373</v>
       </c>
       <c r="D6">
-        <v>72.95580821483115</v>
+        <v>66.51423669167458</v>
       </c>
       <c r="E6">
-        <v>6.135417365721148</v>
+        <v>4.670275651136829</v>
       </c>
     </row>
   </sheetData>
